--- a/resources/count_sql.xlsx
+++ b/resources/count_sql.xlsx
@@ -451,7 +451,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>(?i, SQL)</t>
+          <t>(Ignore, SQL)</t>
         </is>
       </c>
     </row>

--- a/resources/count_sql.xlsx
+++ b/resources/count_sql.xlsx
@@ -31,933 +31,933 @@
     <t>Activiti</t>
   </si>
   <si>
+    <t>airbyte</t>
+  </si>
+  <si>
+    <t>airsonic</t>
+  </si>
+  <si>
+    <t>spring-cloud-alibaba</t>
+  </si>
+  <si>
+    <t>nacos</t>
+  </si>
+  <si>
+    <t>alluxio</t>
+  </si>
+  <si>
+    <t>VirtualXposed</t>
+  </si>
+  <si>
+    <t>angel</t>
+  </si>
+  <si>
+    <t>Anki-Android</t>
+  </si>
+  <si>
+    <t>AntennaPod</t>
+  </si>
+  <si>
+    <t>AnySoftKeyboard</t>
+  </si>
+  <si>
+    <t>cyclops</t>
+  </si>
+  <si>
+    <t>dubbo</t>
+  </si>
+  <si>
+    <t>kafka</t>
+  </si>
+  <si>
     <t>skywalking</t>
   </si>
   <si>
+    <t>hadoop</t>
+  </si>
+  <si>
+    <t>rocketmq</t>
+  </si>
+  <si>
+    <t>shardingsphere-elasticjob</t>
+  </si>
+  <si>
+    <t>zookeeper</t>
+  </si>
+  <si>
     <t>storm</t>
   </si>
   <si>
+    <t>incubator-dolphinscheduler</t>
+  </si>
+  <si>
+    <t>zeppelin</t>
+  </si>
+  <si>
+    <t>pulsar</t>
+  </si>
+  <si>
+    <t>tomcat</t>
+  </si>
+  <si>
+    <t>incubator-heron</t>
+  </si>
+  <si>
+    <t>jmeter</t>
+  </si>
+  <si>
+    <t>beam</t>
+  </si>
+  <si>
+    <t>incubator-pinot</t>
+  </si>
+  <si>
+    <t>nutch</t>
+  </si>
+  <si>
+    <t>hudi</t>
+  </si>
+  <si>
+    <t>servicecomb-pack</t>
+  </si>
+  <si>
+    <t>maven</t>
+  </si>
+  <si>
+    <t>flume</t>
+  </si>
+  <si>
+    <t>mahout</t>
+  </si>
+  <si>
+    <t>nifi</t>
+  </si>
+  <si>
+    <t>activemq</t>
+  </si>
+  <si>
+    <t>avro</t>
+  </si>
+  <si>
+    <t>iceberg</t>
+  </si>
+  <si>
+    <t>parquet-mr</t>
+  </si>
+  <si>
+    <t>bookkeeper</t>
+  </si>
+  <si>
+    <t>ambari</t>
+  </si>
+  <si>
+    <t>tika</t>
+  </si>
+  <si>
+    <t>netbeans</t>
+  </si>
+  <si>
+    <t>httpcomponents-client</t>
+  </si>
+  <si>
+    <t>cas</t>
+  </si>
+  <si>
+    <t>Arduino</t>
+  </si>
+  <si>
+    <t>AsciidocFX</t>
+  </si>
+  <si>
+    <t>commafeed</t>
+  </si>
+  <si>
+    <t>simplenote-android</t>
+  </si>
+  <si>
+    <t>azkaban</t>
+  </si>
+  <si>
+    <t>mybatis-plus</t>
+  </si>
+  <si>
+    <t>bazel</t>
+  </si>
+  <si>
+    <t>bc-java</t>
+  </si>
+  <si>
+    <t>bigbluebutton</t>
+  </si>
+  <si>
+    <t>bisq</t>
+  </si>
+  <si>
+    <t>bitcoin-wallet</t>
+  </si>
+  <si>
+    <t>keepassdroid</t>
+  </si>
+  <si>
+    <t>gatk</t>
+  </si>
+  <si>
+    <t>btrace</t>
+  </si>
+  <si>
+    <t>portfolio</t>
+  </si>
+  <si>
+    <t>BuildCraft</t>
+  </si>
+  <si>
+    <t>Bukkit</t>
+  </si>
+  <si>
+    <t>baritone</t>
+  </si>
+  <si>
+    <t>zeebe</t>
+  </si>
+  <si>
+    <t>Slide</t>
+  </si>
+  <si>
+    <t>Android-IMSI-Catcher-Detector</t>
+  </si>
+  <si>
+    <t>cgeo</t>
+  </si>
+  <si>
+    <t>checkstyle</t>
+  </si>
+  <si>
+    <t>material-theme-jetbrains</t>
+  </si>
+  <si>
+    <t>libsvm</t>
+  </si>
+  <si>
+    <t>lucida</t>
+  </si>
+  <si>
+    <t>classgraph</t>
+  </si>
+  <si>
+    <t>uaa</t>
+  </si>
+  <si>
+    <t>spring-boot-admin</t>
+  </si>
+  <si>
+    <t>gnucash-android</t>
+  </si>
+  <si>
+    <t>Recaf</t>
+  </si>
+  <si>
+    <t>schema-registry</t>
+  </si>
+  <si>
+    <t>kafka-rest</t>
+  </si>
+  <si>
+    <t>connectbot</t>
+  </si>
+  <si>
+    <t>cryptomator</t>
+  </si>
+  <si>
+    <t>android</t>
+  </si>
+  <si>
+    <t>apollo</t>
+  </si>
+  <si>
+    <t>cucumber-jvm</t>
+  </si>
+  <si>
+    <t>dbeaver</t>
+  </si>
+  <si>
+    <t>debezium</t>
+  </si>
+  <si>
+    <t>dl4j-examples</t>
+  </si>
+  <si>
+    <t>spotless</t>
+  </si>
+  <si>
+    <t>docker-java</t>
+  </si>
+  <si>
+    <t>soul</t>
+  </si>
+  <si>
+    <t>ebean</t>
+  </si>
+  <si>
     <t>che</t>
   </si>
   <si>
+    <t>jetty.project</t>
+  </si>
+  <si>
+    <t>openj9</t>
+  </si>
+  <si>
+    <t>vert.x</t>
+  </si>
+  <si>
+    <t>ehcache3</t>
+  </si>
+  <si>
+    <t>elasticsearch-hadoop</t>
+  </si>
+  <si>
+    <t>embulk</t>
+  </si>
+  <si>
+    <t>WorldEdit</t>
+  </si>
+  <si>
+    <t>eclim</t>
+  </si>
+  <si>
+    <t>Etar-Calendar</t>
+  </si>
+  <si>
+    <t>docker-maven-plugin</t>
+  </si>
+  <si>
+    <t>buck</t>
+  </si>
+  <si>
+    <t>jackson-databind</t>
+  </si>
+  <si>
+    <t>jackson-core</t>
+  </si>
+  <si>
+    <t>Omni-Notes</t>
+  </si>
+  <si>
+    <t>find-sec-bugs</t>
+  </si>
+  <si>
+    <t>search-guard</t>
+  </si>
+  <si>
+    <t>flowable-engine</t>
+  </si>
+  <si>
+    <t>flutter-intellij</t>
+  </si>
+  <si>
+    <t>flyway</t>
+  </si>
+  <si>
+    <t>open-event-organizer-android</t>
+  </si>
+  <si>
+    <t>susi_server</t>
+  </si>
+  <si>
+    <t>phimpme-android</t>
+  </si>
+  <si>
+    <t>pslab-android</t>
+  </si>
+  <si>
+    <t>Gadgetbridge</t>
+  </si>
+  <si>
+    <t>FBReaderJ</t>
+  </si>
+  <si>
+    <t>geoserver</t>
+  </si>
+  <si>
+    <t>gephi</t>
+  </si>
+  <si>
+    <t>Geyser</t>
+  </si>
+  <si>
+    <t>git-commit-id-maven-plugin</t>
+  </si>
+  <si>
+    <t>gitblit</t>
+  </si>
+  <si>
+    <t>Glowstone</t>
+  </si>
+  <si>
+    <t>guacamole-client</t>
+  </si>
+  <si>
+    <t>gocd</t>
+  </si>
+  <si>
+    <t>ExoPlayer</t>
+  </si>
+  <si>
+    <t>j2objc</t>
+  </si>
+  <si>
+    <t>error-prone</t>
+  </si>
+  <si>
+    <t>nomulus</t>
+  </si>
+  <si>
+    <t>copybara</t>
+  </si>
+  <si>
+    <t>jib</t>
+  </si>
+  <si>
+    <t>graphhopper</t>
+  </si>
+  <si>
+    <t>jsprit</t>
+  </si>
+  <si>
+    <t>gravitee-gateway</t>
+  </si>
+  <si>
+    <t>graylog2-server</t>
+  </si>
+  <si>
+    <t>markor</t>
+  </si>
+  <si>
+    <t>h2o-3</t>
+  </si>
+  <si>
+    <t>smile</t>
+  </si>
+  <si>
+    <t>hawtio</t>
+  </si>
+  <si>
+    <t>pitest</t>
+  </si>
+  <si>
+    <t>materialistic</t>
+  </si>
+  <si>
+    <t>Digital</t>
+  </si>
+  <si>
+    <t>HMCL</t>
+  </si>
+  <si>
+    <t>i2p.i2p</t>
+  </si>
+  <si>
+    <t>Apktool</t>
+  </si>
+  <si>
+    <t>Openfire</t>
+  </si>
+  <si>
+    <t>Conversations</t>
+  </si>
+  <si>
+    <t>heritrix3</t>
+  </si>
+  <si>
+    <t>iri</t>
+  </si>
+  <si>
+    <t>uhabits</t>
+  </si>
+  <si>
+    <t>cyberduck</t>
+  </si>
+  <si>
+    <t>jabref</t>
+  </si>
+  <si>
+    <t>mockserver</t>
+  </si>
+  <si>
+    <t>mapdb</t>
+  </si>
+  <si>
+    <t>javamelody</t>
+  </si>
+  <si>
+    <t>sms-backup-plus</t>
+  </si>
+  <si>
+    <t>jenkins</t>
+  </si>
+  <si>
+    <t>blueocean-plugin</t>
+  </si>
+  <si>
+    <t>kubernetes-plugin</t>
+  </si>
+  <si>
+    <t>gitlab-plugin</t>
+  </si>
+  <si>
+    <t>DependencyCheck</t>
+  </si>
+  <si>
+    <t>smali</t>
+  </si>
+  <si>
+    <t>intellij-community</t>
+  </si>
+  <si>
+    <t>ideavim</t>
+  </si>
+  <si>
+    <t>MPS</t>
+  </si>
+  <si>
+    <t>jpexs-decompiler</t>
+  </si>
+  <si>
+    <t>jitsi-videobridge</t>
+  </si>
+  <si>
+    <t>jitsi</t>
+  </si>
+  <si>
+    <t>zotfile</t>
+  </si>
+  <si>
+    <t>jmonkeyengine</t>
+  </si>
+  <si>
+    <t>jmxtrans</t>
+  </si>
+  <si>
+    <t>jsonschema2pojo</t>
+  </si>
+  <si>
+    <t>JSqlParser</t>
+  </si>
+  <si>
+    <t>tablesaw</t>
+  </si>
+  <si>
+    <t>FastHub</t>
+  </si>
+  <si>
+    <t>k-9</t>
+  </si>
+  <si>
+    <t>kaa</t>
+  </si>
+  <si>
+    <t>Phonograph</t>
+  </si>
+  <si>
+    <t>phpinspectionsea</t>
+  </si>
+  <si>
+    <t>grobid</t>
+  </si>
+  <si>
+    <t>keycloak</t>
+  </si>
+  <si>
+    <t>android-oss</t>
+  </si>
+  <si>
+    <t>drools</t>
+  </si>
+  <si>
+    <t>optaplanner</t>
+  </si>
+  <si>
+    <t>jbpm</t>
+  </si>
+  <si>
+    <t>killbill</t>
+  </si>
+  <si>
+    <t>intellij-elixir</t>
+  </si>
+  <si>
+    <t>languagetool</t>
+  </si>
+  <si>
+    <t>Lawnchair</t>
+  </si>
+  <si>
+    <t>lbry-android</t>
+  </si>
+  <si>
+    <t>liferay-portal</t>
+  </si>
+  <si>
+    <t>ambry</t>
+  </si>
+  <si>
+    <t>liquibase</t>
+  </si>
+  <si>
+    <t>LuckPerms</t>
+  </si>
+  <si>
+    <t>NetGuard</t>
+  </si>
+  <si>
+    <t>mage</t>
+  </si>
+  <si>
+    <t>mapstruct</t>
+  </si>
+  <si>
+    <t>marytts</t>
+  </si>
+  <si>
+    <t>material-components-android</t>
+  </si>
+  <si>
+    <t>gpslogger</t>
+  </si>
+  <si>
+    <t>micrometer</t>
+  </si>
+  <si>
+    <t>malmo</t>
+  </si>
+  <si>
+    <t>MinecraftForge</t>
+  </si>
+  <si>
+    <t>OpenID-Connect-Java-Spring-Server</t>
+  </si>
+  <si>
+    <t>qksms</t>
+  </si>
+  <si>
+    <t>Terasology</t>
+  </si>
+  <si>
+    <t>focus-android</t>
+  </si>
+  <si>
+    <t>msgpack-java</t>
+  </si>
+  <si>
     <t>pinpoint</t>
   </si>
   <si>
+    <t>ngrinder</t>
+  </si>
+  <si>
+    <t>KISS</t>
+  </si>
+  <si>
+    <t>eureka</t>
+  </si>
+  <si>
+    <t>conductor</t>
+  </si>
+  <si>
+    <t>genie</t>
+  </si>
+  <si>
+    <t>cqengine</t>
+  </si>
+  <si>
+    <t>open-keychain</t>
+  </si>
+  <si>
+    <t>openapi-generator</t>
+  </si>
+  <si>
+    <t>Chronicle-Queue</t>
+  </si>
+  <si>
+    <t>Chronicle-Map</t>
+  </si>
+  <si>
+    <t>OpenRefine</t>
+  </si>
+  <si>
+    <t>BIMserver</t>
+  </si>
+  <si>
+    <t>OpenTripPlanner</t>
+  </si>
+  <si>
+    <t>openvidu</t>
+  </si>
+  <si>
+    <t>zipkin</t>
+  </si>
+  <si>
+    <t>opengrok</t>
+  </si>
+  <si>
+    <t>visualvm</t>
+  </si>
+  <si>
+    <t>orgzly-android</t>
+  </si>
+  <si>
+    <t>oryx</t>
+  </si>
+  <si>
+    <t>oshi</t>
+  </si>
+  <si>
+    <t>OsmAnd</t>
+  </si>
+  <si>
+    <t>Osmand</t>
+  </si>
+  <si>
+    <t>osmdroid</t>
+  </si>
+  <si>
+    <t>pac4j</t>
+  </si>
+  <si>
+    <t>pentaho-kettle</t>
+  </si>
+  <si>
+    <t>keepass2android</t>
+  </si>
+  <si>
+    <t>secor</t>
+  </si>
+  <si>
+    <t>pmd</t>
+  </si>
+  <si>
+    <t>PocketHub</t>
+  </si>
+  <si>
+    <t>pravega</t>
+  </si>
+  <si>
+    <t>presto</t>
+  </si>
+  <si>
+    <t>processing</t>
+  </si>
+  <si>
+    <t>psi-probe</t>
+  </si>
+  <si>
+    <t>storio</t>
+  </si>
+  <si>
+    <t>serve</t>
+  </si>
+  <si>
+    <t>slf4j</t>
+  </si>
+  <si>
+    <t>RedReader</t>
+  </si>
+  <si>
+    <t>quran_android</t>
+  </si>
+  <si>
+    <t>Rajawali</t>
+  </si>
+  <si>
+    <t>reactor-netty</t>
+  </si>
+  <si>
+    <t>aeron</t>
+  </si>
+  <si>
+    <t>simple-binary-encoding</t>
+  </si>
+  <si>
+    <t>redisson</t>
+  </si>
+  <si>
+    <t>xabber-android</t>
+  </si>
+  <si>
+    <t>rest-assured</t>
+  </si>
+  <si>
+    <t>ripme</t>
+  </si>
+  <si>
+    <t>rstudio</t>
+  </si>
+  <si>
+    <t>runelite</t>
+  </si>
+  <si>
+    <t>ics-openvpn</t>
+  </si>
+  <si>
+    <t>scouter</t>
+  </si>
+  <si>
+    <t>Signal-Android</t>
+  </si>
+  <si>
+    <t>android-maven-plugin</t>
+  </si>
+  <si>
+    <t>jadx</t>
+  </si>
+  <si>
+    <t>gh4a</t>
+  </si>
+  <si>
+    <t>autopsy</t>
+  </si>
+  <si>
+    <t>sonarqube</t>
+  </si>
+  <si>
+    <t>nokogiri</t>
+  </si>
+  <si>
+    <t>speedment</t>
+  </si>
+  <si>
+    <t>BungeeCord</t>
+  </si>
+  <si>
+    <t>SpongeAPI</t>
+  </si>
+  <si>
+    <t>SpongeForge</t>
+  </si>
+  <si>
+    <t>spotbugs</t>
+  </si>
+  <si>
+    <t>helios</t>
+  </si>
+  <si>
+    <t>spring-cloud-netflix</t>
+  </si>
+  <si>
+    <t>spring-cloud-gateway</t>
+  </si>
+  <si>
+    <t>spring-cloud-config</t>
+  </si>
+  <si>
+    <t>spring-cloud-sleuth</t>
+  </si>
+  <si>
+    <t>okhttp</t>
+  </si>
+  <si>
+    <t>retrofit</t>
+  </si>
+  <si>
+    <t>wire</t>
+  </si>
+  <si>
+    <t>keywhiz</t>
+  </si>
+  <si>
+    <t>stagemonitor</t>
+  </si>
+  <si>
+    <t>strimzi-kafka-operator</t>
+  </si>
+  <si>
+    <t>swagger-core</t>
+  </si>
+  <si>
+    <t>syncany</t>
+  </si>
+  <si>
+    <t>syncthing-android</t>
+  </si>
+  <si>
+    <t>synthea</t>
+  </si>
+  <si>
+    <t>AmazeFileManager</t>
+  </si>
+  <si>
+    <t>teammates</t>
+  </si>
+  <si>
+    <t>onedev</t>
+  </si>
+  <si>
+    <t>thingsboard</t>
+  </si>
+  <si>
+    <t>thymeleaf</t>
+  </si>
+  <si>
+    <t>Shuttle</t>
+  </si>
+  <si>
+    <t>wiremock</t>
+  </si>
+  <si>
+    <t>amidst</t>
+  </si>
+  <si>
+    <t>traccar</t>
+  </si>
+  <si>
+    <t>java-tron</t>
+  </si>
+  <si>
+    <t>beakerx</t>
+  </si>
+  <si>
+    <t>afwall</t>
+  </si>
+  <si>
+    <t>undertow</t>
+  </si>
+  <si>
+    <t>LeafPic</t>
+  </si>
+  <si>
+    <t>UniversalMediaServer</t>
+  </si>
+  <si>
+    <t>validator</t>
+  </si>
+  <si>
+    <t>modeldb</t>
+  </si>
+  <si>
+    <t>vespa</t>
+  </si>
+  <si>
+    <t>Saturn</t>
+  </si>
+  <si>
+    <t>flexmark-java</t>
+  </si>
+  <si>
+    <t>epubcheck</t>
+  </si>
+  <si>
+    <t>dynmap</t>
+  </si>
+  <si>
+    <t>StreetComplete</t>
+  </si>
+  <si>
+    <t>apps-android-wikipedia</t>
+  </si>
+  <si>
     <t>wildfly</t>
   </si>
   <si>
-    <t>airbyte</t>
-  </si>
-  <si>
-    <t>airsonic</t>
-  </si>
-  <si>
-    <t>spring-cloud-alibaba</t>
-  </si>
-  <si>
-    <t>nacos</t>
-  </si>
-  <si>
-    <t>alluxio</t>
-  </si>
-  <si>
-    <t>VirtualXposed</t>
-  </si>
-  <si>
-    <t>angel</t>
-  </si>
-  <si>
-    <t>Anki-Android</t>
-  </si>
-  <si>
-    <t>AntennaPod</t>
-  </si>
-  <si>
-    <t>AnySoftKeyboard</t>
-  </si>
-  <si>
-    <t>cyclops</t>
-  </si>
-  <si>
-    <t>dubbo</t>
-  </si>
-  <si>
-    <t>kafka</t>
-  </si>
-  <si>
-    <t>hadoop</t>
-  </si>
-  <si>
-    <t>rocketmq</t>
-  </si>
-  <si>
-    <t>shardingsphere-elasticjob</t>
-  </si>
-  <si>
-    <t>zookeeper</t>
-  </si>
-  <si>
-    <t>incubator-dolphinscheduler</t>
-  </si>
-  <si>
-    <t>zeppelin</t>
-  </si>
-  <si>
-    <t>pulsar</t>
-  </si>
-  <si>
-    <t>tomcat</t>
-  </si>
-  <si>
-    <t>incubator-heron</t>
-  </si>
-  <si>
-    <t>jmeter</t>
-  </si>
-  <si>
-    <t>beam</t>
-  </si>
-  <si>
-    <t>incubator-pinot</t>
-  </si>
-  <si>
-    <t>nutch</t>
-  </si>
-  <si>
-    <t>hudi</t>
-  </si>
-  <si>
-    <t>servicecomb-pack</t>
-  </si>
-  <si>
-    <t>maven</t>
-  </si>
-  <si>
-    <t>flume</t>
-  </si>
-  <si>
-    <t>mahout</t>
-  </si>
-  <si>
-    <t>nifi</t>
-  </si>
-  <si>
-    <t>activemq</t>
-  </si>
-  <si>
-    <t>avro</t>
-  </si>
-  <si>
-    <t>iceberg</t>
-  </si>
-  <si>
-    <t>parquet-mr</t>
-  </si>
-  <si>
-    <t>bookkeeper</t>
-  </si>
-  <si>
-    <t>ambari</t>
-  </si>
-  <si>
-    <t>tika</t>
-  </si>
-  <si>
-    <t>netbeans</t>
-  </si>
-  <si>
-    <t>httpcomponents-client</t>
-  </si>
-  <si>
-    <t>cas</t>
-  </si>
-  <si>
-    <t>Arduino</t>
-  </si>
-  <si>
-    <t>AsciidocFX</t>
-  </si>
-  <si>
-    <t>commafeed</t>
-  </si>
-  <si>
-    <t>simplenote-android</t>
-  </si>
-  <si>
-    <t>azkaban</t>
-  </si>
-  <si>
-    <t>mybatis-plus</t>
-  </si>
-  <si>
-    <t>bazel</t>
-  </si>
-  <si>
-    <t>bc-java</t>
-  </si>
-  <si>
-    <t>bigbluebutton</t>
-  </si>
-  <si>
-    <t>bisq</t>
-  </si>
-  <si>
-    <t>bitcoin-wallet</t>
-  </si>
-  <si>
-    <t>keepassdroid</t>
-  </si>
-  <si>
-    <t>gatk</t>
-  </si>
-  <si>
-    <t>btrace</t>
-  </si>
-  <si>
-    <t>portfolio</t>
-  </si>
-  <si>
-    <t>BuildCraft</t>
-  </si>
-  <si>
-    <t>Bukkit</t>
-  </si>
-  <si>
-    <t>baritone</t>
-  </si>
-  <si>
-    <t>zeebe</t>
-  </si>
-  <si>
-    <t>Slide</t>
-  </si>
-  <si>
-    <t>Android-IMSI-Catcher-Detector</t>
-  </si>
-  <si>
-    <t>cgeo</t>
-  </si>
-  <si>
-    <t>checkstyle</t>
-  </si>
-  <si>
-    <t>material-theme-jetbrains</t>
-  </si>
-  <si>
-    <t>libsvm</t>
-  </si>
-  <si>
-    <t>lucida</t>
-  </si>
-  <si>
-    <t>classgraph</t>
-  </si>
-  <si>
-    <t>uaa</t>
-  </si>
-  <si>
-    <t>spring-boot-admin</t>
-  </si>
-  <si>
-    <t>gnucash-android</t>
-  </si>
-  <si>
-    <t>Recaf</t>
-  </si>
-  <si>
-    <t>schema-registry</t>
-  </si>
-  <si>
-    <t>kafka-rest</t>
-  </si>
-  <si>
-    <t>connectbot</t>
-  </si>
-  <si>
-    <t>cryptomator</t>
-  </si>
-  <si>
-    <t>android</t>
-  </si>
-  <si>
-    <t>apollo</t>
-  </si>
-  <si>
-    <t>cucumber-jvm</t>
-  </si>
-  <si>
-    <t>dbeaver</t>
-  </si>
-  <si>
-    <t>debezium</t>
-  </si>
-  <si>
-    <t>dl4j-examples</t>
-  </si>
-  <si>
-    <t>spotless</t>
-  </si>
-  <si>
-    <t>docker-java</t>
-  </si>
-  <si>
-    <t>soul</t>
-  </si>
-  <si>
-    <t>ebean</t>
-  </si>
-  <si>
-    <t>jetty.project</t>
-  </si>
-  <si>
-    <t>openj9</t>
-  </si>
-  <si>
-    <t>vert.x</t>
-  </si>
-  <si>
-    <t>ehcache3</t>
-  </si>
-  <si>
-    <t>elasticsearch-hadoop</t>
-  </si>
-  <si>
-    <t>embulk</t>
-  </si>
-  <si>
-    <t>WorldEdit</t>
-  </si>
-  <si>
-    <t>eclim</t>
-  </si>
-  <si>
-    <t>Etar-Calendar</t>
-  </si>
-  <si>
-    <t>docker-maven-plugin</t>
-  </si>
-  <si>
-    <t>buck</t>
-  </si>
-  <si>
-    <t>jackson-databind</t>
-  </si>
-  <si>
-    <t>jackson-core</t>
-  </si>
-  <si>
-    <t>Omni-Notes</t>
-  </si>
-  <si>
-    <t>find-sec-bugs</t>
-  </si>
-  <si>
-    <t>search-guard</t>
-  </si>
-  <si>
-    <t>flowable-engine</t>
-  </si>
-  <si>
-    <t>flutter-intellij</t>
-  </si>
-  <si>
-    <t>flyway</t>
-  </si>
-  <si>
-    <t>open-event-organizer-android</t>
-  </si>
-  <si>
-    <t>susi_server</t>
-  </si>
-  <si>
-    <t>phimpme-android</t>
-  </si>
-  <si>
-    <t>pslab-android</t>
-  </si>
-  <si>
-    <t>Gadgetbridge</t>
-  </si>
-  <si>
-    <t>FBReaderJ</t>
-  </si>
-  <si>
-    <t>geoserver</t>
-  </si>
-  <si>
-    <t>gephi</t>
-  </si>
-  <si>
-    <t>Geyser</t>
-  </si>
-  <si>
-    <t>git-commit-id-maven-plugin</t>
-  </si>
-  <si>
-    <t>gitblit</t>
-  </si>
-  <si>
-    <t>Glowstone</t>
-  </si>
-  <si>
-    <t>guacamole-client</t>
-  </si>
-  <si>
-    <t>gocd</t>
-  </si>
-  <si>
-    <t>ExoPlayer</t>
-  </si>
-  <si>
-    <t>j2objc</t>
-  </si>
-  <si>
-    <t>error-prone</t>
-  </si>
-  <si>
-    <t>nomulus</t>
-  </si>
-  <si>
-    <t>copybara</t>
-  </si>
-  <si>
-    <t>jib</t>
-  </si>
-  <si>
-    <t>graphhopper</t>
-  </si>
-  <si>
-    <t>jsprit</t>
-  </si>
-  <si>
-    <t>gravitee-gateway</t>
-  </si>
-  <si>
-    <t>graylog2-server</t>
-  </si>
-  <si>
-    <t>markor</t>
-  </si>
-  <si>
-    <t>h2o-3</t>
-  </si>
-  <si>
-    <t>smile</t>
-  </si>
-  <si>
-    <t>hawtio</t>
-  </si>
-  <si>
-    <t>pitest</t>
-  </si>
-  <si>
-    <t>materialistic</t>
-  </si>
-  <si>
-    <t>Digital</t>
-  </si>
-  <si>
-    <t>HMCL</t>
-  </si>
-  <si>
-    <t>i2p.i2p</t>
-  </si>
-  <si>
-    <t>Apktool</t>
-  </si>
-  <si>
-    <t>Openfire</t>
-  </si>
-  <si>
-    <t>Conversations</t>
-  </si>
-  <si>
-    <t>heritrix3</t>
-  </si>
-  <si>
-    <t>iri</t>
-  </si>
-  <si>
-    <t>uhabits</t>
-  </si>
-  <si>
-    <t>cyberduck</t>
-  </si>
-  <si>
-    <t>jabref</t>
-  </si>
-  <si>
-    <t>mockserver</t>
-  </si>
-  <si>
-    <t>mapdb</t>
-  </si>
-  <si>
-    <t>javamelody</t>
-  </si>
-  <si>
-    <t>sms-backup-plus</t>
-  </si>
-  <si>
-    <t>jenkins</t>
-  </si>
-  <si>
-    <t>blueocean-plugin</t>
-  </si>
-  <si>
-    <t>kubernetes-plugin</t>
-  </si>
-  <si>
-    <t>gitlab-plugin</t>
-  </si>
-  <si>
-    <t>DependencyCheck</t>
-  </si>
-  <si>
-    <t>smali</t>
-  </si>
-  <si>
-    <t>intellij-community</t>
-  </si>
-  <si>
-    <t>ideavim</t>
-  </si>
-  <si>
-    <t>MPS</t>
-  </si>
-  <si>
-    <t>jpexs-decompiler</t>
-  </si>
-  <si>
-    <t>jitsi-videobridge</t>
-  </si>
-  <si>
-    <t>jitsi</t>
-  </si>
-  <si>
-    <t>zotfile</t>
-  </si>
-  <si>
-    <t>jmonkeyengine</t>
-  </si>
-  <si>
-    <t>jmxtrans</t>
-  </si>
-  <si>
-    <t>jsonschema2pojo</t>
-  </si>
-  <si>
-    <t>JSqlParser</t>
-  </si>
-  <si>
-    <t>tablesaw</t>
-  </si>
-  <si>
-    <t>FastHub</t>
-  </si>
-  <si>
-    <t>k-9</t>
-  </si>
-  <si>
-    <t>kaa</t>
-  </si>
-  <si>
-    <t>Phonograph</t>
-  </si>
-  <si>
-    <t>phpinspectionsea</t>
-  </si>
-  <si>
-    <t>grobid</t>
-  </si>
-  <si>
-    <t>keycloak</t>
-  </si>
-  <si>
-    <t>android-oss</t>
-  </si>
-  <si>
-    <t>drools</t>
-  </si>
-  <si>
-    <t>optaplanner</t>
-  </si>
-  <si>
-    <t>jbpm</t>
-  </si>
-  <si>
-    <t>killbill</t>
-  </si>
-  <si>
-    <t>intellij-elixir</t>
-  </si>
-  <si>
-    <t>languagetool</t>
-  </si>
-  <si>
-    <t>Lawnchair</t>
-  </si>
-  <si>
-    <t>lbry-android</t>
-  </si>
-  <si>
-    <t>liferay-portal</t>
-  </si>
-  <si>
-    <t>ambry</t>
-  </si>
-  <si>
-    <t>liquibase</t>
-  </si>
-  <si>
-    <t>LuckPerms</t>
-  </si>
-  <si>
-    <t>NetGuard</t>
-  </si>
-  <si>
-    <t>mage</t>
-  </si>
-  <si>
-    <t>mapstruct</t>
-  </si>
-  <si>
-    <t>marytts</t>
-  </si>
-  <si>
-    <t>material-components-android</t>
-  </si>
-  <si>
-    <t>gpslogger</t>
-  </si>
-  <si>
-    <t>micrometer</t>
-  </si>
-  <si>
-    <t>malmo</t>
-  </si>
-  <si>
-    <t>MinecraftForge</t>
-  </si>
-  <si>
-    <t>OpenID-Connect-Java-Spring-Server</t>
-  </si>
-  <si>
-    <t>qksms</t>
-  </si>
-  <si>
-    <t>Terasology</t>
-  </si>
-  <si>
-    <t>focus-android</t>
-  </si>
-  <si>
-    <t>msgpack-java</t>
-  </si>
-  <si>
-    <t>ngrinder</t>
-  </si>
-  <si>
-    <t>KISS</t>
-  </si>
-  <si>
-    <t>eureka</t>
-  </si>
-  <si>
-    <t>conductor</t>
-  </si>
-  <si>
-    <t>genie</t>
-  </si>
-  <si>
-    <t>cqengine</t>
-  </si>
-  <si>
-    <t>open-keychain</t>
-  </si>
-  <si>
-    <t>openapi-generator</t>
-  </si>
-  <si>
-    <t>Chronicle-Queue</t>
-  </si>
-  <si>
-    <t>Chronicle-Map</t>
-  </si>
-  <si>
-    <t>OpenRefine</t>
-  </si>
-  <si>
-    <t>BIMserver</t>
-  </si>
-  <si>
-    <t>OpenTripPlanner</t>
-  </si>
-  <si>
-    <t>openvidu</t>
-  </si>
-  <si>
-    <t>zipkin</t>
-  </si>
-  <si>
-    <t>opengrok</t>
-  </si>
-  <si>
-    <t>visualvm</t>
-  </si>
-  <si>
-    <t>orgzly-android</t>
-  </si>
-  <si>
-    <t>oryx</t>
-  </si>
-  <si>
-    <t>oshi</t>
-  </si>
-  <si>
-    <t>OsmAnd</t>
-  </si>
-  <si>
-    <t>Osmand</t>
-  </si>
-  <si>
-    <t>osmdroid</t>
-  </si>
-  <si>
-    <t>pac4j</t>
-  </si>
-  <si>
-    <t>pentaho-kettle</t>
-  </si>
-  <si>
-    <t>keepass2android</t>
-  </si>
-  <si>
-    <t>secor</t>
-  </si>
-  <si>
-    <t>pmd</t>
-  </si>
-  <si>
-    <t>PocketHub</t>
-  </si>
-  <si>
-    <t>pravega</t>
-  </si>
-  <si>
-    <t>presto</t>
-  </si>
-  <si>
-    <t>processing</t>
-  </si>
-  <si>
-    <t>psi-probe</t>
-  </si>
-  <si>
-    <t>storio</t>
-  </si>
-  <si>
-    <t>serve</t>
-  </si>
-  <si>
-    <t>slf4j</t>
-  </si>
-  <si>
-    <t>RedReader</t>
-  </si>
-  <si>
-    <t>quran_android</t>
-  </si>
-  <si>
-    <t>Rajawali</t>
-  </si>
-  <si>
-    <t>reactor-netty</t>
-  </si>
-  <si>
-    <t>aeron</t>
-  </si>
-  <si>
-    <t>simple-binary-encoding</t>
-  </si>
-  <si>
-    <t>redisson</t>
-  </si>
-  <si>
-    <t>xabber-android</t>
-  </si>
-  <si>
-    <t>rest-assured</t>
-  </si>
-  <si>
-    <t>ripme</t>
-  </si>
-  <si>
-    <t>rstudio</t>
-  </si>
-  <si>
-    <t>runelite</t>
-  </si>
-  <si>
-    <t>ics-openvpn</t>
-  </si>
-  <si>
-    <t>scouter</t>
-  </si>
-  <si>
-    <t>Signal-Android</t>
-  </si>
-  <si>
-    <t>android-maven-plugin</t>
-  </si>
-  <si>
-    <t>jadx</t>
-  </si>
-  <si>
-    <t>gh4a</t>
-  </si>
-  <si>
-    <t>autopsy</t>
-  </si>
-  <si>
-    <t>sonarqube</t>
-  </si>
-  <si>
-    <t>nokogiri</t>
-  </si>
-  <si>
-    <t>speedment</t>
-  </si>
-  <si>
-    <t>BungeeCord</t>
-  </si>
-  <si>
-    <t>SpongeAPI</t>
-  </si>
-  <si>
-    <t>SpongeForge</t>
-  </si>
-  <si>
-    <t>spotbugs</t>
-  </si>
-  <si>
-    <t>helios</t>
-  </si>
-  <si>
-    <t>spring-cloud-netflix</t>
-  </si>
-  <si>
-    <t>spring-cloud-gateway</t>
-  </si>
-  <si>
-    <t>spring-cloud-config</t>
-  </si>
-  <si>
-    <t>spring-cloud-sleuth</t>
-  </si>
-  <si>
-    <t>okhttp</t>
-  </si>
-  <si>
-    <t>retrofit</t>
-  </si>
-  <si>
-    <t>wire</t>
-  </si>
-  <si>
-    <t>keywhiz</t>
-  </si>
-  <si>
-    <t>stagemonitor</t>
-  </si>
-  <si>
-    <t>strimzi-kafka-operator</t>
-  </si>
-  <si>
-    <t>swagger-core</t>
-  </si>
-  <si>
-    <t>syncany</t>
-  </si>
-  <si>
-    <t>syncthing-android</t>
-  </si>
-  <si>
-    <t>synthea</t>
-  </si>
-  <si>
-    <t>AmazeFileManager</t>
-  </si>
-  <si>
-    <t>teammates</t>
-  </si>
-  <si>
-    <t>onedev</t>
-  </si>
-  <si>
-    <t>thingsboard</t>
-  </si>
-  <si>
-    <t>thymeleaf</t>
-  </si>
-  <si>
-    <t>Shuttle</t>
-  </si>
-  <si>
-    <t>wiremock</t>
-  </si>
-  <si>
-    <t>amidst</t>
-  </si>
-  <si>
-    <t>traccar</t>
-  </si>
-  <si>
-    <t>java-tron</t>
-  </si>
-  <si>
-    <t>beakerx</t>
-  </si>
-  <si>
-    <t>afwall</t>
-  </si>
-  <si>
-    <t>undertow</t>
-  </si>
-  <si>
-    <t>LeafPic</t>
-  </si>
-  <si>
-    <t>UniversalMediaServer</t>
-  </si>
-  <si>
-    <t>validator</t>
-  </si>
-  <si>
-    <t>modeldb</t>
-  </si>
-  <si>
-    <t>vespa</t>
-  </si>
-  <si>
-    <t>Saturn</t>
-  </si>
-  <si>
-    <t>flexmark-java</t>
-  </si>
-  <si>
-    <t>epubcheck</t>
-  </si>
-  <si>
-    <t>dynmap</t>
-  </si>
-  <si>
-    <t>StreetComplete</t>
-  </si>
-  <si>
-    <t>apps-android-wikipedia</t>
-  </si>
-  <si>
     <t>Universal-G-Code-Sender</t>
   </si>
   <si>
@@ -985,25 +985,25 @@
     <t>automation</t>
   </si>
   <si>
+    <t>infrastructure management</t>
+  </si>
+  <si>
+    <t>media</t>
+  </si>
+  <si>
+    <t>hpc</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>machine learning</t>
+  </si>
+  <si>
+    <t>software development</t>
+  </si>
+  <si>
     <t>monitoring</t>
-  </si>
-  <si>
-    <t>hpc</t>
-  </si>
-  <si>
-    <t>software development</t>
-  </si>
-  <si>
-    <t>infrastructure management</t>
-  </si>
-  <si>
-    <t>media</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>machine learning</t>
   </si>
   <si>
     <t>collaboration</t>
@@ -1445,10 +1445,10 @@
         <v>323</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="D3">
-        <v>31</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1459,10 +1459,10 @@
         <v>324</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4">
-        <v>43</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1470,13 +1470,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1487,10 +1487,10 @@
         <v>323</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D6">
-        <v>32</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1498,13 +1498,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>72</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1515,10 +1515,10 @@
         <v>326</v>
       </c>
       <c r="C8">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1529,10 +1529,10 @@
         <v>327</v>
       </c>
       <c r="C9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>52</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1540,13 +1540,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C10">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>6</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1554,13 +1554,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C11">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>48</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1574,7 +1574,7 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1588,7 +1588,7 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1596,13 +1596,13 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1610,13 +1610,13 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>101</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1624,13 +1624,13 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16">
-        <v>8</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1638,13 +1638,13 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>35</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1652,13 +1652,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1666,13 +1666,13 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1680,13 +1680,13 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>49</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1694,13 +1694,13 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D21">
-        <v>177</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1708,13 +1708,13 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>15</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1722,13 +1722,13 @@
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>12</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1736,13 +1736,13 @@
         <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>9</v>
+        <v>264</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1750,13 +1750,13 @@
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>97</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1764,13 +1764,13 @@
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C26">
         <v>0</v>
       </c>
       <c r="D26">
-        <v>88</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1778,13 +1778,13 @@
         <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C27">
         <v>0</v>
       </c>
       <c r="D27">
-        <v>264</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1792,13 +1792,13 @@
         <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C28">
         <v>0</v>
       </c>
       <c r="D28">
-        <v>16</v>
+        <v>238</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1806,13 +1806,13 @@
         <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="C29">
         <v>0</v>
       </c>
       <c r="D29">
-        <v>16</v>
+        <v>202</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1820,13 +1820,13 @@
         <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C30">
         <v>0</v>
       </c>
       <c r="D30">
-        <v>29</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1834,13 +1834,13 @@
         <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C31">
         <v>0</v>
       </c>
       <c r="D31">
-        <v>238</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1848,13 +1848,13 @@
         <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D32">
-        <v>202</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1862,13 +1862,13 @@
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="C33">
         <v>0</v>
       </c>
       <c r="D33">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1876,13 +1876,13 @@
         <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C34">
         <v>0</v>
       </c>
       <c r="D34">
-        <v>68</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1890,13 +1890,13 @@
         <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C35">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="D35">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1904,13 +1904,13 @@
         <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D36">
-        <v>3</v>
+        <v>173</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1918,13 +1918,13 @@
         <v>39</v>
       </c>
       <c r="B37" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="C37">
         <v>0</v>
       </c>
       <c r="D37">
-        <v>7</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1932,13 +1932,13 @@
         <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C38">
         <v>0</v>
       </c>
       <c r="D38">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1946,13 +1946,13 @@
         <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C39">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="D39">
-        <v>173</v>
+        <v>117</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1960,13 +1960,13 @@
         <v>42</v>
       </c>
       <c r="B40" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="C40">
         <v>0</v>
       </c>
       <c r="D40">
-        <v>38</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1974,13 +1974,13 @@
         <v>43</v>
       </c>
       <c r="B41" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C41">
         <v>0</v>
       </c>
       <c r="D41">
-        <v>6</v>
+        <v>57</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1988,13 +1988,13 @@
         <v>44</v>
       </c>
       <c r="B42" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="C42">
         <v>0</v>
       </c>
       <c r="D42">
-        <v>117</v>
+        <v>230</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2002,13 +2002,13 @@
         <v>45</v>
       </c>
       <c r="B43" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C43">
         <v>0</v>
       </c>
       <c r="D43">
-        <v>3</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -2016,13 +2016,13 @@
         <v>46</v>
       </c>
       <c r="B44" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="C44">
         <v>0</v>
       </c>
       <c r="D44">
-        <v>57</v>
+        <v>608</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2030,13 +2030,13 @@
         <v>47</v>
       </c>
       <c r="B45" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="C45">
         <v>0</v>
       </c>
       <c r="D45">
-        <v>230</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2044,13 +2044,13 @@
         <v>48</v>
       </c>
       <c r="B46" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="D46">
-        <v>23</v>
+        <v>63</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2058,13 +2058,13 @@
         <v>49</v>
       </c>
       <c r="B47" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="C47">
         <v>0</v>
       </c>
       <c r="D47">
-        <v>608</v>
+        <v>73</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2072,13 +2072,13 @@
         <v>50</v>
       </c>
       <c r="B48" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="C48">
         <v>0</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2086,13 +2086,13 @@
         <v>51</v>
       </c>
       <c r="B49" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="C49">
-        <v>96</v>
+        <v>1</v>
       </c>
       <c r="D49">
-        <v>63</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2100,13 +2100,13 @@
         <v>52</v>
       </c>
       <c r="B50" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="C50">
         <v>0</v>
       </c>
       <c r="D50">
-        <v>73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2114,13 +2114,13 @@
         <v>53</v>
       </c>
       <c r="B51" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C51">
         <v>0</v>
       </c>
       <c r="D51">
-        <v>22</v>
+        <v>39</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2128,13 +2128,13 @@
         <v>54</v>
       </c>
       <c r="B52" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C52">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D52">
-        <v>1</v>
+        <v>64</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2142,13 +2142,13 @@
         <v>55</v>
       </c>
       <c r="B53" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="C53">
         <v>0</v>
       </c>
       <c r="D53">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2162,7 +2162,7 @@
         <v>0</v>
       </c>
       <c r="D54">
-        <v>39</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2170,13 +2170,13 @@
         <v>57</v>
       </c>
       <c r="B55" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="C55">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D55">
-        <v>64</v>
+        <v>22</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2184,13 +2184,13 @@
         <v>58</v>
       </c>
       <c r="B56" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C56">
         <v>0</v>
       </c>
       <c r="D56">
-        <v>36</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2198,13 +2198,13 @@
         <v>59</v>
       </c>
       <c r="B57" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="C57">
         <v>0</v>
       </c>
       <c r="D57">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2212,13 +2212,13 @@
         <v>60</v>
       </c>
       <c r="B58" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="C58">
         <v>0</v>
       </c>
       <c r="D58">
-        <v>22</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2226,13 +2226,13 @@
         <v>61</v>
       </c>
       <c r="B59" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="C59">
         <v>0</v>
       </c>
       <c r="D59">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2240,13 +2240,13 @@
         <v>62</v>
       </c>
       <c r="B60" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="C60">
         <v>0</v>
       </c>
       <c r="D60">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2254,13 +2254,13 @@
         <v>63</v>
       </c>
       <c r="B61" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="C61">
         <v>0</v>
       </c>
       <c r="D61">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2268,13 +2268,13 @@
         <v>64</v>
       </c>
       <c r="B62" t="s">
-        <v>324</v>
+        <v>337</v>
       </c>
       <c r="C62">
         <v>0</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2282,13 +2282,13 @@
         <v>65</v>
       </c>
       <c r="B63" t="s">
-        <v>323</v>
+        <v>337</v>
       </c>
       <c r="C63">
         <v>0</v>
       </c>
       <c r="D63">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2296,7 +2296,7 @@
         <v>66</v>
       </c>
       <c r="B64" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -2310,13 +2310,13 @@
         <v>67</v>
       </c>
       <c r="B65" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="C65">
         <v>0</v>
       </c>
       <c r="D65">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2324,13 +2324,13 @@
         <v>68</v>
       </c>
       <c r="B66" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="C66">
         <v>0</v>
       </c>
       <c r="D66">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2338,13 +2338,13 @@
         <v>69</v>
       </c>
       <c r="B67" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="C67">
         <v>0</v>
       </c>
       <c r="D67">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2352,13 +2352,13 @@
         <v>70</v>
       </c>
       <c r="B68" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="C68">
         <v>0</v>
       </c>
       <c r="D68">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2366,13 +2366,13 @@
         <v>71</v>
       </c>
       <c r="B69" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C69">
         <v>0</v>
       </c>
       <c r="D69">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2380,13 +2380,13 @@
         <v>72</v>
       </c>
       <c r="B70" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="C70">
         <v>0</v>
       </c>
       <c r="D70">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2394,13 +2394,13 @@
         <v>73</v>
       </c>
       <c r="B71" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="C71">
         <v>0</v>
       </c>
       <c r="D71">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2408,13 +2408,13 @@
         <v>74</v>
       </c>
       <c r="B72" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C72">
         <v>0</v>
       </c>
       <c r="D72">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2422,13 +2422,13 @@
         <v>75</v>
       </c>
       <c r="B73" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="C73">
         <v>0</v>
       </c>
       <c r="D73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2436,13 +2436,13 @@
         <v>76</v>
       </c>
       <c r="B74" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C74">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="D74">
-        <v>3</v>
+        <v>118</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2450,13 +2450,13 @@
         <v>77</v>
       </c>
       <c r="B75" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C75">
         <v>0</v>
       </c>
       <c r="D75">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2464,13 +2464,13 @@
         <v>78</v>
       </c>
       <c r="B76" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C76">
         <v>0</v>
       </c>
       <c r="D76">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2481,10 +2481,10 @@
         <v>328</v>
       </c>
       <c r="C77">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="D77">
-        <v>118</v>
+        <v>4</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2492,13 +2492,13 @@
         <v>80</v>
       </c>
       <c r="B78" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C78">
         <v>0</v>
       </c>
       <c r="D78">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2506,13 +2506,13 @@
         <v>81</v>
       </c>
       <c r="B79" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="C79">
         <v>0</v>
       </c>
       <c r="D79">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2520,13 +2520,13 @@
         <v>82</v>
       </c>
       <c r="B80" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C80">
         <v>0</v>
       </c>
       <c r="D80">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2540,7 +2540,7 @@
         <v>0</v>
       </c>
       <c r="D81">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2548,7 +2548,7 @@
         <v>84</v>
       </c>
       <c r="B82" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="C82">
         <v>0</v>
@@ -2562,13 +2562,13 @@
         <v>85</v>
       </c>
       <c r="B83" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="C83">
         <v>0</v>
       </c>
       <c r="D83">
-        <v>3</v>
+        <v>73</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2579,10 +2579,10 @@
         <v>328</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D84">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2596,7 +2596,7 @@
         <v>0</v>
       </c>
       <c r="D85">
-        <v>2</v>
+        <v>178</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2604,13 +2604,13 @@
         <v>88</v>
       </c>
       <c r="B86" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="C86">
         <v>0</v>
       </c>
       <c r="D86">
-        <v>73</v>
+        <v>199</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2618,13 +2618,13 @@
         <v>89</v>
       </c>
       <c r="B87" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C87">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D87">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2632,13 +2632,13 @@
         <v>90</v>
       </c>
       <c r="B88" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="C88">
         <v>0</v>
       </c>
       <c r="D88">
-        <v>178</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2646,13 +2646,13 @@
         <v>91</v>
       </c>
       <c r="B89" t="s">
-        <v>323</v>
+        <v>338</v>
       </c>
       <c r="C89">
         <v>0</v>
       </c>
       <c r="D89">
-        <v>199</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2660,13 +2660,13 @@
         <v>92</v>
       </c>
       <c r="B90" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="C90">
         <v>0</v>
       </c>
       <c r="D90">
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2674,13 +2674,13 @@
         <v>93</v>
       </c>
       <c r="B91" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="C91">
         <v>0</v>
       </c>
       <c r="D91">
-        <v>1</v>
+        <v>306</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2688,7 +2688,7 @@
         <v>94</v>
       </c>
       <c r="B92" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="C92">
         <v>0</v>
@@ -2708,7 +2708,7 @@
         <v>0</v>
       </c>
       <c r="D93">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2716,13 +2716,13 @@
         <v>96</v>
       </c>
       <c r="B94" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="C94">
         <v>0</v>
       </c>
       <c r="D94">
-        <v>306</v>
+        <v>439</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2730,13 +2730,13 @@
         <v>97</v>
       </c>
       <c r="B95" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="C95">
         <v>0</v>
       </c>
       <c r="D95">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2744,13 +2744,13 @@
         <v>98</v>
       </c>
       <c r="B96" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="C96">
         <v>0</v>
       </c>
       <c r="D96">
-        <v>439</v>
+        <v>4</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2764,7 +2764,7 @@
         <v>0</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2772,13 +2772,13 @@
         <v>100</v>
       </c>
       <c r="B98" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C98">
         <v>0</v>
       </c>
       <c r="D98">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2786,13 +2786,13 @@
         <v>101</v>
       </c>
       <c r="B99" t="s">
-        <v>324</v>
+        <v>337</v>
       </c>
       <c r="C99">
         <v>0</v>
       </c>
       <c r="D99">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2800,13 +2800,13 @@
         <v>102</v>
       </c>
       <c r="B100" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="C100">
         <v>0</v>
       </c>
       <c r="D100">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -2814,13 +2814,13 @@
         <v>103</v>
       </c>
       <c r="B101" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="C101">
         <v>0</v>
       </c>
       <c r="D101">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2828,13 +2828,13 @@
         <v>104</v>
       </c>
       <c r="B102" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
       <c r="C102">
         <v>0</v>
       </c>
       <c r="D102">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -2842,13 +2842,13 @@
         <v>105</v>
       </c>
       <c r="B103" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C103">
         <v>0</v>
       </c>
       <c r="D103">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -2856,7 +2856,7 @@
         <v>106</v>
       </c>
       <c r="B104" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="C104">
         <v>0</v>
@@ -2870,13 +2870,13 @@
         <v>107</v>
       </c>
       <c r="B105" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="C105">
         <v>0</v>
       </c>
       <c r="D105">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -2884,13 +2884,13 @@
         <v>108</v>
       </c>
       <c r="B106" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="C106">
         <v>0</v>
       </c>
       <c r="D106">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -2898,13 +2898,13 @@
         <v>109</v>
       </c>
       <c r="B107" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C107">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D107">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -2912,13 +2912,13 @@
         <v>110</v>
       </c>
       <c r="B108" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C108">
         <v>0</v>
       </c>
       <c r="D108">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -2929,10 +2929,10 @@
         <v>328</v>
       </c>
       <c r="C109">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D109">
-        <v>22</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="D110">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -2954,13 +2954,13 @@
         <v>113</v>
       </c>
       <c r="B111" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C111">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D111">
-        <v>1869</v>
+        <v>45</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -2968,13 +2968,13 @@
         <v>114</v>
       </c>
       <c r="B112" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C112">
         <v>0</v>
       </c>
       <c r="D112">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -2982,13 +2982,13 @@
         <v>115</v>
       </c>
       <c r="B113" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C113">
         <v>0</v>
       </c>
       <c r="D113">
-        <v>45</v>
+        <v>13</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2996,13 +2996,13 @@
         <v>116</v>
       </c>
       <c r="B114" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C114">
         <v>0</v>
       </c>
       <c r="D114">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -3010,13 +3010,13 @@
         <v>117</v>
       </c>
       <c r="B115" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="C115">
         <v>0</v>
       </c>
       <c r="D115">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -3024,13 +3024,13 @@
         <v>118</v>
       </c>
       <c r="B116" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C116">
         <v>0</v>
       </c>
       <c r="D116">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -3038,13 +3038,13 @@
         <v>119</v>
       </c>
       <c r="B117" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C117">
         <v>0</v>
       </c>
       <c r="D117">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -3052,13 +3052,13 @@
         <v>120</v>
       </c>
       <c r="B118" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="C118">
         <v>0</v>
       </c>
       <c r="D118">
-        <v>11</v>
+        <v>168</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -3066,13 +3066,13 @@
         <v>121</v>
       </c>
       <c r="B119" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C119">
         <v>0</v>
       </c>
       <c r="D119">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -3080,13 +3080,13 @@
         <v>122</v>
       </c>
       <c r="B120" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="C120">
         <v>0</v>
       </c>
       <c r="D120">
-        <v>168</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -3094,13 +3094,13 @@
         <v>123</v>
       </c>
       <c r="B121" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C121">
         <v>0</v>
       </c>
       <c r="D121">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -3108,13 +3108,13 @@
         <v>124</v>
       </c>
       <c r="B122" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="C122">
         <v>0</v>
       </c>
       <c r="D122">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -3122,13 +3122,13 @@
         <v>125</v>
       </c>
       <c r="B123" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="C123">
         <v>0</v>
       </c>
       <c r="D123">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -3136,13 +3136,13 @@
         <v>126</v>
       </c>
       <c r="B124" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="C124">
         <v>0</v>
       </c>
       <c r="D124">
-        <v>17</v>
+        <v>68</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -3150,13 +3150,13 @@
         <v>127</v>
       </c>
       <c r="B125" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="C125">
         <v>0</v>
       </c>
       <c r="D125">
-        <v>2</v>
+        <v>38</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -3164,13 +3164,13 @@
         <v>128</v>
       </c>
       <c r="B126" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C126">
         <v>0</v>
       </c>
       <c r="D126">
-        <v>68</v>
+        <v>18</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -3178,13 +3178,13 @@
         <v>129</v>
       </c>
       <c r="B127" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="C127">
         <v>0</v>
       </c>
       <c r="D127">
-        <v>38</v>
+        <v>18</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3192,13 +3192,13 @@
         <v>130</v>
       </c>
       <c r="B128" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C128">
         <v>0</v>
       </c>
       <c r="D128">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -3206,13 +3206,13 @@
         <v>131</v>
       </c>
       <c r="B129" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="C129">
         <v>0</v>
       </c>
       <c r="D129">
-        <v>18</v>
+        <v>66</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -3220,13 +3220,13 @@
         <v>132</v>
       </c>
       <c r="B130" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="C130">
         <v>0</v>
       </c>
       <c r="D130">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -3234,13 +3234,13 @@
         <v>133</v>
       </c>
       <c r="B131" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="C131">
         <v>0</v>
       </c>
       <c r="D131">
-        <v>66</v>
+        <v>4</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -3248,13 +3248,13 @@
         <v>134</v>
       </c>
       <c r="B132" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C132">
         <v>0</v>
       </c>
       <c r="D132">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -3262,13 +3262,13 @@
         <v>135</v>
       </c>
       <c r="B133" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="C133">
         <v>0</v>
       </c>
       <c r="D133">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3276,7 +3276,7 @@
         <v>136</v>
       </c>
       <c r="B134" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="C134">
         <v>0</v>
@@ -3290,13 +3290,13 @@
         <v>137</v>
       </c>
       <c r="B135" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C135">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D135">
-        <v>0</v>
+        <v>106</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3304,13 +3304,13 @@
         <v>138</v>
       </c>
       <c r="B136" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="C136">
         <v>0</v>
       </c>
       <c r="D136">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3318,13 +3318,13 @@
         <v>139</v>
       </c>
       <c r="B137" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C137">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D137">
-        <v>106</v>
+        <v>82</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3338,7 +3338,7 @@
         <v>0</v>
       </c>
       <c r="D138">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3346,13 +3346,13 @@
         <v>141</v>
       </c>
       <c r="B139" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="C139">
         <v>0</v>
       </c>
       <c r="D139">
-        <v>82</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3360,13 +3360,13 @@
         <v>142</v>
       </c>
       <c r="B140" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C140">
         <v>0</v>
       </c>
       <c r="D140">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3374,13 +3374,13 @@
         <v>143</v>
       </c>
       <c r="B141" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C141">
         <v>0</v>
       </c>
       <c r="D141">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3388,13 +3388,13 @@
         <v>144</v>
       </c>
       <c r="B142" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C142">
         <v>0</v>
       </c>
       <c r="D142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3402,13 +3402,13 @@
         <v>145</v>
       </c>
       <c r="B143" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="C143">
         <v>0</v>
       </c>
       <c r="D143">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3416,13 +3416,13 @@
         <v>146</v>
       </c>
       <c r="B144" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="C144">
         <v>0</v>
       </c>
       <c r="D144">
-        <v>2</v>
+        <v>120</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3430,7 +3430,7 @@
         <v>147</v>
       </c>
       <c r="B145" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="C145">
         <v>0</v>
@@ -3444,13 +3444,13 @@
         <v>148</v>
       </c>
       <c r="B146" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C146">
         <v>0</v>
       </c>
       <c r="D146">
-        <v>120</v>
+        <v>285</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3458,13 +3458,13 @@
         <v>149</v>
       </c>
       <c r="B147" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="C147">
         <v>0</v>
       </c>
       <c r="D147">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3472,13 +3472,13 @@
         <v>150</v>
       </c>
       <c r="B148" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="C148">
         <v>0</v>
       </c>
       <c r="D148">
-        <v>285</v>
+        <v>9</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3486,13 +3486,13 @@
         <v>151</v>
       </c>
       <c r="B149" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C149">
         <v>0</v>
       </c>
       <c r="D149">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3500,13 +3500,13 @@
         <v>152</v>
       </c>
       <c r="B150" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C150">
         <v>0</v>
       </c>
       <c r="D150">
-        <v>9</v>
+        <v>35</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3514,13 +3514,13 @@
         <v>153</v>
       </c>
       <c r="B151" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="C151">
         <v>0</v>
       </c>
       <c r="D151">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -3528,13 +3528,13 @@
         <v>154</v>
       </c>
       <c r="B152" t="s">
-        <v>327</v>
+        <v>339</v>
       </c>
       <c r="C152">
         <v>0</v>
       </c>
       <c r="D152">
-        <v>35</v>
+        <v>9</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3542,13 +3542,13 @@
         <v>155</v>
       </c>
       <c r="B153" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="C153">
         <v>0</v>
       </c>
       <c r="D153">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -3556,13 +3556,13 @@
         <v>156</v>
       </c>
       <c r="B154" t="s">
-        <v>339</v>
+        <v>323</v>
       </c>
       <c r="C154">
         <v>0</v>
       </c>
       <c r="D154">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -3570,13 +3570,13 @@
         <v>157</v>
       </c>
       <c r="B155" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="C155">
         <v>0</v>
       </c>
       <c r="D155">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -3584,13 +3584,13 @@
         <v>158</v>
       </c>
       <c r="B156" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="C156">
         <v>0</v>
       </c>
       <c r="D156">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -3598,13 +3598,13 @@
         <v>159</v>
       </c>
       <c r="B157" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="C157">
         <v>0</v>
       </c>
       <c r="D157">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -3612,13 +3612,13 @@
         <v>160</v>
       </c>
       <c r="B158" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="C158">
         <v>0</v>
       </c>
       <c r="D158">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -3626,13 +3626,13 @@
         <v>161</v>
       </c>
       <c r="B159" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="C159">
         <v>0</v>
       </c>
       <c r="D159">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -3640,13 +3640,13 @@
         <v>162</v>
       </c>
       <c r="B160" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="C160">
         <v>0</v>
       </c>
       <c r="D160">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -3654,13 +3654,13 @@
         <v>163</v>
       </c>
       <c r="B161" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="C161">
         <v>0</v>
       </c>
       <c r="D161">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -3668,13 +3668,13 @@
         <v>164</v>
       </c>
       <c r="B162" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="C162">
         <v>0</v>
       </c>
       <c r="D162">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -3682,13 +3682,13 @@
         <v>165</v>
       </c>
       <c r="B163" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C163">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D163">
-        <v>30</v>
+        <v>137</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -3696,13 +3696,13 @@
         <v>166</v>
       </c>
       <c r="B164" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="C164">
         <v>0</v>
       </c>
       <c r="D164">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -3710,13 +3710,13 @@
         <v>167</v>
       </c>
       <c r="B165" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="C165">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D165">
-        <v>137</v>
+        <v>22</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -3724,13 +3724,13 @@
         <v>168</v>
       </c>
       <c r="B166" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C166">
         <v>0</v>
       </c>
       <c r="D166">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -3738,13 +3738,13 @@
         <v>169</v>
       </c>
       <c r="B167" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="C167">
         <v>0</v>
       </c>
       <c r="D167">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -3752,13 +3752,13 @@
         <v>170</v>
       </c>
       <c r="B168" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="C168">
         <v>0</v>
       </c>
       <c r="D168">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -3766,13 +3766,13 @@
         <v>171</v>
       </c>
       <c r="B169" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="C169">
         <v>0</v>
       </c>
       <c r="D169">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -3780,13 +3780,13 @@
         <v>172</v>
       </c>
       <c r="B170" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="C170">
         <v>0</v>
       </c>
       <c r="D170">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -3794,13 +3794,13 @@
         <v>173</v>
       </c>
       <c r="B171" t="s">
-        <v>339</v>
+        <v>322</v>
       </c>
       <c r="C171">
         <v>0</v>
       </c>
       <c r="D171">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -3808,13 +3808,13 @@
         <v>174</v>
       </c>
       <c r="B172" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="C172">
         <v>0</v>
       </c>
       <c r="D172">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -3822,13 +3822,13 @@
         <v>175</v>
       </c>
       <c r="B173" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="C173">
         <v>0</v>
       </c>
       <c r="D173">
-        <v>0</v>
+        <v>193</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -3836,13 +3836,13 @@
         <v>176</v>
       </c>
       <c r="B174" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C174">
         <v>0</v>
       </c>
       <c r="D174">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -3850,13 +3850,13 @@
         <v>177</v>
       </c>
       <c r="B175" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="C175">
         <v>0</v>
       </c>
       <c r="D175">
-        <v>193</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -3864,13 +3864,13 @@
         <v>178</v>
       </c>
       <c r="B176" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C176">
         <v>0</v>
       </c>
       <c r="D176">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -3878,13 +3878,13 @@
         <v>179</v>
       </c>
       <c r="B177" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C177">
         <v>0</v>
       </c>
       <c r="D177">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -3892,13 +3892,13 @@
         <v>180</v>
       </c>
       <c r="B178" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="C178">
         <v>0</v>
       </c>
       <c r="D178">
-        <v>35</v>
+        <v>3</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -3906,13 +3906,13 @@
         <v>181</v>
       </c>
       <c r="B179" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="C179">
         <v>0</v>
       </c>
       <c r="D179">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="D180">
-        <v>3</v>
+        <v>109</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -3934,13 +3934,13 @@
         <v>183</v>
       </c>
       <c r="B181" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="C181">
         <v>0</v>
       </c>
       <c r="D181">
-        <v>0</v>
+        <v>128</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -3948,13 +3948,13 @@
         <v>184</v>
       </c>
       <c r="B182" t="s">
-        <v>329</v>
+        <v>340</v>
       </c>
       <c r="C182">
         <v>0</v>
       </c>
       <c r="D182">
-        <v>109</v>
+        <v>4</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -3962,13 +3962,13 @@
         <v>185</v>
       </c>
       <c r="B183" t="s">
-        <v>328</v>
+        <v>341</v>
       </c>
       <c r="C183">
         <v>0</v>
       </c>
       <c r="D183">
-        <v>128</v>
+        <v>9</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -3976,13 +3976,13 @@
         <v>186</v>
       </c>
       <c r="B184" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C184">
         <v>0</v>
       </c>
       <c r="D184">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -3990,13 +3990,13 @@
         <v>187</v>
       </c>
       <c r="B185" t="s">
-        <v>341</v>
+        <v>322</v>
       </c>
       <c r="C185">
         <v>0</v>
       </c>
       <c r="D185">
-        <v>9</v>
+        <v>172</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -4004,13 +4004,13 @@
         <v>188</v>
       </c>
       <c r="B186" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C186">
         <v>0</v>
       </c>
       <c r="D186">
-        <v>8</v>
+        <v>53</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -4018,13 +4018,13 @@
         <v>189</v>
       </c>
       <c r="B187" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="C187">
         <v>0</v>
       </c>
       <c r="D187">
-        <v>172</v>
+        <v>5</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -4032,13 +4032,13 @@
         <v>190</v>
       </c>
       <c r="B188" t="s">
-        <v>342</v>
+        <v>324</v>
       </c>
       <c r="C188">
         <v>0</v>
       </c>
       <c r="D188">
-        <v>53</v>
+        <v>7</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -4046,13 +4046,13 @@
         <v>191</v>
       </c>
       <c r="B189" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C189">
         <v>0</v>
       </c>
       <c r="D189">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -4060,13 +4060,13 @@
         <v>192</v>
       </c>
       <c r="B190" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C190">
         <v>0</v>
       </c>
       <c r="D190">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -4074,13 +4074,13 @@
         <v>193</v>
       </c>
       <c r="B191" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C191">
         <v>0</v>
       </c>
       <c r="D191">
-        <v>15</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -4088,13 +4088,13 @@
         <v>194</v>
       </c>
       <c r="B192" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C192">
         <v>0</v>
       </c>
       <c r="D192">
-        <v>1</v>
+        <v>63</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -4102,13 +4102,13 @@
         <v>195</v>
       </c>
       <c r="B193" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C193">
         <v>0</v>
       </c>
       <c r="D193">
-        <v>1187</v>
+        <v>352</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -4116,13 +4116,13 @@
         <v>196</v>
       </c>
       <c r="B194" t="s">
-        <v>324</v>
+        <v>337</v>
       </c>
       <c r="C194">
         <v>0</v>
       </c>
       <c r="D194">
-        <v>63</v>
+        <v>5</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -4130,13 +4130,13 @@
         <v>197</v>
       </c>
       <c r="B195" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="C195">
         <v>0</v>
       </c>
       <c r="D195">
-        <v>352</v>
+        <v>3</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -4150,7 +4150,7 @@
         <v>0</v>
       </c>
       <c r="D196">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -4158,7 +4158,7 @@
         <v>199</v>
       </c>
       <c r="B197" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="C197">
         <v>0</v>
@@ -4172,13 +4172,13 @@
         <v>200</v>
       </c>
       <c r="B198" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="C198">
         <v>0</v>
       </c>
       <c r="D198">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -4186,13 +4186,13 @@
         <v>201</v>
       </c>
       <c r="B199" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="C199">
         <v>0</v>
       </c>
       <c r="D199">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -4200,13 +4200,13 @@
         <v>202</v>
       </c>
       <c r="B200" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C200">
         <v>0</v>
       </c>
       <c r="D200">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -4214,13 +4214,13 @@
         <v>203</v>
       </c>
       <c r="B201" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="C201">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D201">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -4228,13 +4228,13 @@
         <v>204</v>
       </c>
       <c r="B202" t="s">
-        <v>323</v>
+        <v>337</v>
       </c>
       <c r="C202">
         <v>0</v>
       </c>
       <c r="D202">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -4242,13 +4242,13 @@
         <v>205</v>
       </c>
       <c r="B203" t="s">
-        <v>323</v>
+        <v>337</v>
       </c>
       <c r="C203">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D203">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -4256,55 +4256,55 @@
         <v>206</v>
       </c>
       <c r="B204" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="C204">
         <v>0</v>
       </c>
       <c r="D204">
-        <v>1</v>
+        <v>39</v>
       </c>
     </row>
     <row r="205" spans="1:4">
       <c r="A205" t="s">
-        <v>207</v>
+        <v>155</v>
       </c>
       <c r="B205" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C205">
         <v>0</v>
       </c>
       <c r="D205">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="A206" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B206" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="C206">
         <v>0</v>
       </c>
       <c r="D206">
-        <v>39</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:4">
       <c r="A207" t="s">
-        <v>157</v>
+        <v>208</v>
       </c>
       <c r="B207" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="C207">
         <v>0</v>
       </c>
       <c r="D207">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4312,13 +4312,13 @@
         <v>209</v>
       </c>
       <c r="B208" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="C208">
         <v>0</v>
       </c>
       <c r="D208">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4326,13 +4326,13 @@
         <v>210</v>
       </c>
       <c r="B209" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="C209">
         <v>0</v>
       </c>
       <c r="D209">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4340,13 +4340,13 @@
         <v>211</v>
       </c>
       <c r="B210" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C210">
         <v>0</v>
       </c>
       <c r="D210">
-        <v>3</v>
+        <v>32</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4354,13 +4354,13 @@
         <v>212</v>
       </c>
       <c r="B211" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="C211">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D211">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4368,13 +4368,13 @@
         <v>213</v>
       </c>
       <c r="B212" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C212">
+        <v>0</v>
+      </c>
+      <c r="D212">
         <v>1</v>
-      </c>
-      <c r="D212">
-        <v>5</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4382,13 +4382,13 @@
         <v>214</v>
       </c>
       <c r="B213" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C213">
         <v>0</v>
       </c>
       <c r="D213">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4396,13 +4396,13 @@
         <v>215</v>
       </c>
       <c r="B214" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C214">
         <v>0</v>
       </c>
       <c r="D214">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4410,41 +4410,41 @@
         <v>216</v>
       </c>
       <c r="B215" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C215">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D215">
-        <v>18</v>
+        <v>51</v>
       </c>
     </row>
     <row r="216" spans="1:4">
       <c r="A216" t="s">
-        <v>217</v>
+        <v>84</v>
       </c>
       <c r="B216" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C216">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D216">
-        <v>51</v>
+        <v>7</v>
       </c>
     </row>
     <row r="217" spans="1:4">
       <c r="A217" t="s">
-        <v>87</v>
+        <v>217</v>
       </c>
       <c r="B217" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C217">
         <v>0</v>
       </c>
       <c r="D217">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4452,13 +4452,13 @@
         <v>218</v>
       </c>
       <c r="B218" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="C218">
         <v>0</v>
       </c>
       <c r="D218">
-        <v>15</v>
+        <v>34</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4466,13 +4466,13 @@
         <v>219</v>
       </c>
       <c r="B219" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C219">
         <v>0</v>
       </c>
       <c r="D219">
-        <v>34</v>
+        <v>135</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4480,13 +4480,13 @@
         <v>220</v>
       </c>
       <c r="B220" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C220">
         <v>0</v>
       </c>
       <c r="D220">
-        <v>135</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -4494,7 +4494,7 @@
         <v>221</v>
       </c>
       <c r="B221" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C221">
         <v>0</v>
@@ -4508,13 +4508,13 @@
         <v>222</v>
       </c>
       <c r="B222" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="C222">
         <v>0</v>
       </c>
       <c r="D222">
-        <v>2</v>
+        <v>38</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -4522,13 +4522,13 @@
         <v>223</v>
       </c>
       <c r="B223" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="C223">
         <v>0</v>
       </c>
       <c r="D223">
-        <v>38</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -4536,13 +4536,13 @@
         <v>224</v>
       </c>
       <c r="B224" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C224">
         <v>0</v>
       </c>
       <c r="D224">
-        <v>2</v>
+        <v>34</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -4550,13 +4550,13 @@
         <v>225</v>
       </c>
       <c r="B225" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="C225">
         <v>0</v>
       </c>
       <c r="D225">
-        <v>34</v>
+        <v>3</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -4564,13 +4564,13 @@
         <v>226</v>
       </c>
       <c r="B226" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C226">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="D226">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -4578,13 +4578,13 @@
         <v>227</v>
       </c>
       <c r="B227" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="C227">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="D227">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -4592,13 +4592,13 @@
         <v>228</v>
       </c>
       <c r="B228" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="C228">
         <v>0</v>
       </c>
       <c r="D228">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -4606,13 +4606,13 @@
         <v>229</v>
       </c>
       <c r="B229" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="C229">
         <v>0</v>
       </c>
       <c r="D229">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -4620,13 +4620,13 @@
         <v>230</v>
       </c>
       <c r="B230" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
       <c r="C230">
         <v>0</v>
       </c>
       <c r="D230">
-        <v>25</v>
+        <v>4</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -4634,13 +4634,13 @@
         <v>231</v>
       </c>
       <c r="B231" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="C231">
         <v>0</v>
       </c>
       <c r="D231">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -4648,13 +4648,13 @@
         <v>232</v>
       </c>
       <c r="B232" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="C232">
         <v>0</v>
       </c>
       <c r="D232">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -4662,7 +4662,7 @@
         <v>233</v>
       </c>
       <c r="B233" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C233">
         <v>0</v>
@@ -4676,41 +4676,41 @@
         <v>234</v>
       </c>
       <c r="B234" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C234">
         <v>0</v>
       </c>
       <c r="D234">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="235" spans="1:4">
       <c r="A235" t="s">
-        <v>235</v>
+        <v>84</v>
       </c>
       <c r="B235" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C235">
         <v>0</v>
       </c>
       <c r="D235">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="236" spans="1:4">
       <c r="A236" t="s">
-        <v>87</v>
+        <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C236">
         <v>0</v>
       </c>
       <c r="D236">
-        <v>24</v>
+        <v>3</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -4718,13 +4718,13 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="C237">
         <v>0</v>
       </c>
       <c r="D237">
-        <v>3</v>
+        <v>253</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -4732,13 +4732,13 @@
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="C238">
         <v>0</v>
       </c>
       <c r="D238">
-        <v>253</v>
+        <v>5</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -4746,13 +4746,13 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C239">
         <v>0</v>
       </c>
       <c r="D239">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -4760,13 +4760,13 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="C240">
         <v>0</v>
       </c>
       <c r="D240">
-        <v>1</v>
+        <v>78</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -4774,13 +4774,13 @@
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C241">
         <v>0</v>
       </c>
       <c r="D241">
-        <v>78</v>
+        <v>15</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -4788,13 +4788,13 @@
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C242">
         <v>0</v>
       </c>
       <c r="D242">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -4802,13 +4802,13 @@
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="C243">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D243">
-        <v>44</v>
+        <v>581</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -4816,13 +4816,13 @@
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C244">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D244">
-        <v>581</v>
+        <v>9</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -4830,13 +4830,13 @@
         <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="C245">
         <v>0</v>
       </c>
       <c r="D245">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -4844,13 +4844,13 @@
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="C246">
         <v>0</v>
       </c>
       <c r="D246">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -4858,13 +4858,13 @@
         <v>246</v>
       </c>
       <c r="B247" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C247">
         <v>0</v>
       </c>
       <c r="D247">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -4872,13 +4872,13 @@
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C248">
         <v>0</v>
       </c>
       <c r="D248">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -4886,13 +4886,13 @@
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="C249">
         <v>0</v>
       </c>
       <c r="D249">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -4900,13 +4900,13 @@
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C250">
         <v>0</v>
       </c>
       <c r="D250">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -4914,13 +4914,13 @@
         <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C251">
         <v>0</v>
       </c>
       <c r="D251">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -4928,13 +4928,13 @@
         <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="C252">
         <v>0</v>
       </c>
       <c r="D252">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -4948,7 +4948,7 @@
         <v>0</v>
       </c>
       <c r="D253">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -4962,7 +4962,7 @@
         <v>0</v>
       </c>
       <c r="D254">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -4970,13 +4970,13 @@
         <v>254</v>
       </c>
       <c r="B255" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="C255">
         <v>0</v>
       </c>
       <c r="D255">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -4984,13 +4984,13 @@
         <v>255</v>
       </c>
       <c r="B256" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="C256">
         <v>0</v>
       </c>
       <c r="D256">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -4998,13 +4998,13 @@
         <v>256</v>
       </c>
       <c r="B257" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C257">
         <v>0</v>
       </c>
       <c r="D257">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -5012,13 +5012,13 @@
         <v>257</v>
       </c>
       <c r="B258" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C258">
         <v>0</v>
       </c>
       <c r="D258">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -5026,13 +5026,13 @@
         <v>258</v>
       </c>
       <c r="B259" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C259">
         <v>0</v>
       </c>
       <c r="D259">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -5040,13 +5040,13 @@
         <v>259</v>
       </c>
       <c r="B260" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="C260">
         <v>0</v>
       </c>
       <c r="D260">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -5054,13 +5054,13 @@
         <v>260</v>
       </c>
       <c r="B261" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C261">
         <v>0</v>
       </c>
       <c r="D261">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -5068,32 +5068,32 @@
         <v>261</v>
       </c>
       <c r="B262" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C262">
         <v>0</v>
       </c>
       <c r="D262">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="263" spans="1:4">
       <c r="A263" t="s">
-        <v>262</v>
+        <v>149</v>
       </c>
       <c r="B263" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="C263">
         <v>0</v>
       </c>
       <c r="D263">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="264" spans="1:4">
       <c r="A264" t="s">
-        <v>151</v>
+        <v>262</v>
       </c>
       <c r="B264" t="s">
         <v>331</v>
@@ -5102,7 +5102,7 @@
         <v>0</v>
       </c>
       <c r="D264">
-        <v>9</v>
+        <v>33</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -5110,13 +5110,13 @@
         <v>263</v>
       </c>
       <c r="B265" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C265">
         <v>0</v>
       </c>
       <c r="D265">
-        <v>33</v>
+        <v>6</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -5124,13 +5124,13 @@
         <v>264</v>
       </c>
       <c r="B266" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="C266">
         <v>0</v>
       </c>
       <c r="D266">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -5138,13 +5138,13 @@
         <v>265</v>
       </c>
       <c r="B267" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="C267">
         <v>0</v>
       </c>
       <c r="D267">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -5152,13 +5152,13 @@
         <v>266</v>
       </c>
       <c r="B268" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C268">
         <v>0</v>
       </c>
       <c r="D268">
-        <v>1</v>
+        <v>136</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -5166,13 +5166,13 @@
         <v>267</v>
       </c>
       <c r="B269" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="C269">
         <v>0</v>
       </c>
       <c r="D269">
-        <v>136</v>
+        <v>231</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -5180,13 +5180,13 @@
         <v>268</v>
       </c>
       <c r="B270" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C270">
         <v>0</v>
       </c>
       <c r="D270">
-        <v>231</v>
+        <v>3</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -5194,13 +5194,13 @@
         <v>269</v>
       </c>
       <c r="B271" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="C271">
         <v>0</v>
       </c>
       <c r="D271">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -5208,13 +5208,13 @@
         <v>270</v>
       </c>
       <c r="B272" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="C272">
         <v>0</v>
       </c>
       <c r="D272">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -5222,13 +5222,13 @@
         <v>271</v>
       </c>
       <c r="B273" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="C273">
         <v>0</v>
       </c>
       <c r="D273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -5242,7 +5242,7 @@
         <v>0</v>
       </c>
       <c r="D274">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -5250,13 +5250,13 @@
         <v>273</v>
       </c>
       <c r="B275" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="C275">
         <v>0</v>
       </c>
       <c r="D275">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -5264,13 +5264,13 @@
         <v>274</v>
       </c>
       <c r="B276" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="C276">
         <v>0</v>
       </c>
       <c r="D276">
-        <v>29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -5278,7 +5278,7 @@
         <v>275</v>
       </c>
       <c r="B277" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="C277">
         <v>0</v>
@@ -5292,13 +5292,13 @@
         <v>276</v>
       </c>
       <c r="B278" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="C278">
         <v>0</v>
       </c>
       <c r="D278">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -5306,13 +5306,13 @@
         <v>277</v>
       </c>
       <c r="B279" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="C279">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D279">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -5320,13 +5320,13 @@
         <v>278</v>
       </c>
       <c r="B280" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="C280">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D280">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -5334,13 +5334,13 @@
         <v>279</v>
       </c>
       <c r="B281" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="C281">
         <v>0</v>
       </c>
       <c r="D281">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -5354,7 +5354,7 @@
         <v>0</v>
       </c>
       <c r="D282">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -5362,7 +5362,7 @@
         <v>281</v>
       </c>
       <c r="B283" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="C283">
         <v>0</v>
@@ -5376,13 +5376,13 @@
         <v>282</v>
       </c>
       <c r="B284" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C284">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="D284">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -5390,13 +5390,13 @@
         <v>283</v>
       </c>
       <c r="B285" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C285">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="D285">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -5410,7 +5410,7 @@
         <v>0</v>
       </c>
       <c r="D286">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -5418,13 +5418,13 @@
         <v>285</v>
       </c>
       <c r="B287" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C287">
         <v>0</v>
       </c>
       <c r="D287">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -5432,13 +5432,13 @@
         <v>286</v>
       </c>
       <c r="B288" t="s">
-        <v>325</v>
+        <v>339</v>
       </c>
       <c r="C288">
         <v>0</v>
       </c>
       <c r="D288">
-        <v>3</v>
+        <v>47</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -5452,7 +5452,7 @@
         <v>0</v>
       </c>
       <c r="D289">
-        <v>47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -5460,13 +5460,13 @@
         <v>288</v>
       </c>
       <c r="B290" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="C290">
         <v>0</v>
       </c>
       <c r="D290">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -5474,13 +5474,13 @@
         <v>289</v>
       </c>
       <c r="B291" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="C291">
         <v>0</v>
       </c>
       <c r="D291">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -5488,13 +5488,13 @@
         <v>290</v>
       </c>
       <c r="B292" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="C292">
         <v>0</v>
       </c>
       <c r="D292">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -5502,13 +5502,13 @@
         <v>291</v>
       </c>
       <c r="B293" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="C293">
         <v>0</v>
       </c>
       <c r="D293">
-        <v>19</v>
+        <v>33</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -5516,13 +5516,13 @@
         <v>292</v>
       </c>
       <c r="B294" t="s">
-        <v>338</v>
+        <v>322</v>
       </c>
       <c r="C294">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="D294">
-        <v>33</v>
+        <v>81</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -5530,13 +5530,13 @@
         <v>293</v>
       </c>
       <c r="B295" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="C295">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="D295">
-        <v>81</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -5544,13 +5544,13 @@
         <v>294</v>
       </c>
       <c r="B296" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C296">
         <v>0</v>
       </c>
       <c r="D296">
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -5558,13 +5558,13 @@
         <v>295</v>
       </c>
       <c r="B297" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C297">
         <v>0</v>
       </c>
       <c r="D297">
-        <v>34</v>
+        <v>3</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -5572,13 +5572,13 @@
         <v>296</v>
       </c>
       <c r="B298" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="C298">
         <v>0</v>
       </c>
       <c r="D298">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -5586,13 +5586,13 @@
         <v>297</v>
       </c>
       <c r="B299" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="C299">
         <v>0</v>
       </c>
       <c r="D299">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -5600,13 +5600,13 @@
         <v>298</v>
       </c>
       <c r="B300" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="C300">
         <v>0</v>
       </c>
       <c r="D300">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -5614,13 +5614,13 @@
         <v>299</v>
       </c>
       <c r="B301" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="C301">
         <v>0</v>
       </c>
       <c r="D301">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -5634,7 +5634,7 @@
         <v>0</v>
       </c>
       <c r="D302">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -5642,13 +5642,13 @@
         <v>301</v>
       </c>
       <c r="B303" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="C303">
         <v>0</v>
       </c>
       <c r="D303">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -5656,13 +5656,13 @@
         <v>302</v>
       </c>
       <c r="B304" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C304">
         <v>0</v>
       </c>
       <c r="D304">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -5670,13 +5670,13 @@
         <v>303</v>
       </c>
       <c r="B305" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C305">
         <v>0</v>
       </c>
       <c r="D305">
-        <v>2</v>
+        <v>34</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -5684,13 +5684,13 @@
         <v>304</v>
       </c>
       <c r="B306" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C306">
         <v>0</v>
       </c>
       <c r="D306">
-        <v>34</v>
+        <v>3</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -5698,13 +5698,13 @@
         <v>305</v>
       </c>
       <c r="B307" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C307">
         <v>0</v>
       </c>
       <c r="D307">
-        <v>3</v>
+        <v>87</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -5712,13 +5712,13 @@
         <v>306</v>
       </c>
       <c r="B308" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C308">
         <v>0</v>
       </c>
       <c r="D308">
-        <v>87</v>
+        <v>42</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -5726,13 +5726,13 @@
         <v>307</v>
       </c>
       <c r="B309" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C309">
         <v>0</v>
       </c>
       <c r="D309">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -5740,13 +5740,13 @@
         <v>308</v>
       </c>
       <c r="B310" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="C310">
         <v>0</v>
       </c>
       <c r="D310">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -5760,7 +5760,7 @@
         <v>0</v>
       </c>
       <c r="D311">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -5768,13 +5768,13 @@
         <v>310</v>
       </c>
       <c r="B312" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="C312">
         <v>0</v>
       </c>
       <c r="D312">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -5782,13 +5782,13 @@
         <v>311</v>
       </c>
       <c r="B313" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="C313">
         <v>0</v>
       </c>
       <c r="D313">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -5796,13 +5796,13 @@
         <v>312</v>
       </c>
       <c r="B314" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C314">
         <v>0</v>
       </c>
       <c r="D314">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -5810,13 +5810,13 @@
         <v>313</v>
       </c>
       <c r="B315" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C315">
         <v>0</v>
       </c>
       <c r="D315">
-        <v>20</v>
+        <v>72</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -5824,7 +5824,7 @@
         <v>314</v>
       </c>
       <c r="B316" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C316">
         <v>0</v>
@@ -5838,7 +5838,7 @@
         <v>315</v>
       </c>
       <c r="B317" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="C317">
         <v>0</v>
@@ -5866,7 +5866,7 @@
         <v>317</v>
       </c>
       <c r="B319" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C319">
         <v>0</v>
@@ -5880,7 +5880,7 @@
         <v>318</v>
       </c>
       <c r="B320" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C320">
         <v>0</v>
@@ -5894,7 +5894,7 @@
         <v>319</v>
       </c>
       <c r="B321" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C321">
         <v>0</v>
@@ -5908,7 +5908,7 @@
         <v>320</v>
       </c>
       <c r="B322" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C322">
         <v>0</v>
@@ -5922,7 +5922,7 @@
         <v>321</v>
       </c>
       <c r="B323" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="C323">
         <v>0</v>

--- a/resources/count_sql.xlsx
+++ b/resources/count_sql.xlsx
@@ -1431,7 +1431,7 @@
         <v>322</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="D2">
         <v>248</v>
@@ -1500,9 +1500,6 @@
       <c r="B7" t="s">
         <v>325</v>
       </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
       <c r="D7">
         <v>39</v>
       </c>
@@ -1514,9 +1511,6 @@
       <c r="B8" t="s">
         <v>326</v>
       </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
       <c r="D8">
         <v>1</v>
       </c>
@@ -1528,9 +1522,6 @@
       <c r="B9" t="s">
         <v>327</v>
       </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
       <c r="D9">
         <v>4</v>
       </c>
@@ -1542,9 +1533,6 @@
       <c r="B10" t="s">
         <v>324</v>
       </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
       <c r="D10">
         <v>101</v>
       </c>
@@ -1556,9 +1544,6 @@
       <c r="B11" t="s">
         <v>324</v>
       </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
       <c r="D11">
         <v>8</v>
       </c>
@@ -1570,9 +1555,6 @@
       <c r="B12" t="s">
         <v>324</v>
       </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
       <c r="D12">
         <v>35</v>
       </c>
@@ -1584,9 +1566,6 @@
       <c r="B13" t="s">
         <v>328</v>
       </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
       <c r="D13">
         <v>4</v>
       </c>
@@ -1598,9 +1577,6 @@
       <c r="B14" t="s">
         <v>323</v>
       </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
       <c r="D14">
         <v>9</v>
       </c>
@@ -1612,9 +1588,6 @@
       <c r="B15" t="s">
         <v>323</v>
       </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
       <c r="D15">
         <v>49</v>
       </c>
@@ -1627,7 +1600,7 @@
         <v>329</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16">
         <v>31</v>
@@ -1640,9 +1613,6 @@
       <c r="B17" t="s">
         <v>325</v>
       </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
       <c r="D17">
         <v>177</v>
       </c>
@@ -1654,9 +1624,6 @@
       <c r="B18" t="s">
         <v>323</v>
       </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
       <c r="D18">
         <v>15</v>
       </c>
@@ -1668,9 +1635,6 @@
       <c r="B19" t="s">
         <v>323</v>
       </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
       <c r="D19">
         <v>12</v>
       </c>
@@ -1682,9 +1646,6 @@
       <c r="B20" t="s">
         <v>323</v>
       </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
       <c r="D20">
         <v>9</v>
       </c>
@@ -1710,9 +1671,6 @@
       <c r="B22" t="s">
         <v>323</v>
       </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
       <c r="D22">
         <v>97</v>
       </c>
@@ -1724,9 +1682,6 @@
       <c r="B23" t="s">
         <v>330</v>
       </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
       <c r="D23">
         <v>88</v>
       </c>
@@ -1738,9 +1693,6 @@
       <c r="B24" t="s">
         <v>331</v>
       </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
       <c r="D24">
         <v>264</v>
       </c>
@@ -1752,9 +1704,6 @@
       <c r="B25" t="s">
         <v>328</v>
       </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
       <c r="D25">
         <v>16</v>
       </c>
@@ -1766,9 +1715,6 @@
       <c r="B26" t="s">
         <v>332</v>
       </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
       <c r="D26">
         <v>16</v>
       </c>
@@ -1780,9 +1726,6 @@
       <c r="B27" t="s">
         <v>332</v>
       </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
       <c r="D27">
         <v>29</v>
       </c>
@@ -1794,9 +1737,6 @@
       <c r="B28" t="s">
         <v>323</v>
       </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
       <c r="D28">
         <v>238</v>
       </c>
@@ -1808,9 +1748,6 @@
       <c r="B29" t="s">
         <v>325</v>
       </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
       <c r="D29">
         <v>202</v>
       </c>
@@ -1822,9 +1759,6 @@
       <c r="B30" t="s">
         <v>329</v>
       </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
       <c r="D30">
         <v>7</v>
       </c>
@@ -1836,9 +1770,6 @@
       <c r="B31" t="s">
         <v>325</v>
       </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
       <c r="D31">
         <v>68</v>
       </c>
@@ -1851,7 +1782,7 @@
         <v>323</v>
       </c>
       <c r="C32">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D32">
         <v>20</v>
@@ -1864,9 +1795,6 @@
       <c r="B33" t="s">
         <v>328</v>
       </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
       <c r="D33">
         <v>3</v>
       </c>
@@ -1878,9 +1806,6 @@
       <c r="B34" t="s">
         <v>323</v>
       </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
       <c r="D34">
         <v>7</v>
       </c>
@@ -1892,9 +1817,6 @@
       <c r="B35" t="s">
         <v>327</v>
       </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
       <c r="D35">
         <v>10</v>
       </c>
@@ -1920,9 +1842,6 @@
       <c r="B37" t="s">
         <v>331</v>
       </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
       <c r="D37">
         <v>38</v>
       </c>
@@ -1934,9 +1853,6 @@
       <c r="B38" t="s">
         <v>325</v>
       </c>
-      <c r="C38">
-        <v>0</v>
-      </c>
       <c r="D38">
         <v>6</v>
       </c>
@@ -1948,9 +1864,6 @@
       <c r="B39" t="s">
         <v>325</v>
       </c>
-      <c r="C39">
-        <v>0</v>
-      </c>
       <c r="D39">
         <v>117</v>
       </c>
@@ -1962,9 +1875,6 @@
       <c r="B40" t="s">
         <v>325</v>
       </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
       <c r="D40">
         <v>3</v>
       </c>
@@ -1976,9 +1886,6 @@
       <c r="B41" t="s">
         <v>325</v>
       </c>
-      <c r="C41">
-        <v>0</v>
-      </c>
       <c r="D41">
         <v>57</v>
       </c>
@@ -1991,7 +1898,7 @@
         <v>329</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>291</v>
       </c>
       <c r="D42">
         <v>230</v>
@@ -2004,9 +1911,6 @@
       <c r="B43" t="s">
         <v>332</v>
       </c>
-      <c r="C43">
-        <v>0</v>
-      </c>
       <c r="D43">
         <v>23</v>
       </c>
@@ -2019,7 +1923,7 @@
         <v>328</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>131</v>
       </c>
       <c r="D44">
         <v>608</v>
@@ -2032,12 +1936,6 @@
       <c r="B45" t="s">
         <v>333</v>
       </c>
-      <c r="C45">
-        <v>0</v>
-      </c>
-      <c r="D45">
-        <v>0</v>
-      </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
@@ -2047,7 +1945,7 @@
         <v>326</v>
       </c>
       <c r="C46">
-        <v>96</v>
+        <v>196</v>
       </c>
       <c r="D46">
         <v>63</v>
@@ -2060,9 +1958,6 @@
       <c r="B47" t="s">
         <v>334</v>
       </c>
-      <c r="C47">
-        <v>0</v>
-      </c>
       <c r="D47">
         <v>73</v>
       </c>
@@ -2074,9 +1969,6 @@
       <c r="B48" t="s">
         <v>324</v>
       </c>
-      <c r="C48">
-        <v>0</v>
-      </c>
       <c r="D48">
         <v>22</v>
       </c>
@@ -2089,7 +1981,7 @@
         <v>323</v>
       </c>
       <c r="C49">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D49">
         <v>1</v>
@@ -2102,12 +1994,6 @@
       <c r="B50" t="s">
         <v>324</v>
       </c>
-      <c r="C50">
-        <v>0</v>
-      </c>
-      <c r="D50">
-        <v>0</v>
-      </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
@@ -2116,9 +2002,6 @@
       <c r="B51" t="s">
         <v>323</v>
       </c>
-      <c r="C51">
-        <v>0</v>
-      </c>
       <c r="D51">
         <v>39</v>
       </c>
@@ -2144,9 +2027,6 @@
       <c r="B53" t="s">
         <v>335</v>
       </c>
-      <c r="C53">
-        <v>0</v>
-      </c>
       <c r="D53">
         <v>36</v>
       </c>
@@ -2158,9 +2038,6 @@
       <c r="B54" t="s">
         <v>326</v>
       </c>
-      <c r="C54">
-        <v>0</v>
-      </c>
       <c r="D54">
         <v>1</v>
       </c>
@@ -2172,9 +2049,6 @@
       <c r="B55" t="s">
         <v>331</v>
       </c>
-      <c r="C55">
-        <v>0</v>
-      </c>
       <c r="D55">
         <v>22</v>
       </c>
@@ -2186,9 +2060,6 @@
       <c r="B56" t="s">
         <v>336</v>
       </c>
-      <c r="C56">
-        <v>0</v>
-      </c>
       <c r="D56">
         <v>5</v>
       </c>
@@ -2200,9 +2071,6 @@
       <c r="B57" t="s">
         <v>336</v>
       </c>
-      <c r="C57">
-        <v>0</v>
-      </c>
       <c r="D57">
         <v>4</v>
       </c>
@@ -2214,9 +2082,6 @@
       <c r="B58" t="s">
         <v>326</v>
       </c>
-      <c r="C58">
-        <v>0</v>
-      </c>
       <c r="D58">
         <v>1</v>
       </c>
@@ -2228,12 +2093,6 @@
       <c r="B59" t="s">
         <v>325</v>
       </c>
-      <c r="C59">
-        <v>0</v>
-      </c>
-      <c r="D59">
-        <v>0</v>
-      </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
@@ -2242,9 +2101,6 @@
       <c r="B60" t="s">
         <v>329</v>
       </c>
-      <c r="C60">
-        <v>0</v>
-      </c>
       <c r="D60">
         <v>1</v>
       </c>
@@ -2256,9 +2112,6 @@
       <c r="B61" t="s">
         <v>332</v>
       </c>
-      <c r="C61">
-        <v>0</v>
-      </c>
       <c r="D61">
         <v>3</v>
       </c>
@@ -2270,9 +2123,6 @@
       <c r="B62" t="s">
         <v>337</v>
       </c>
-      <c r="C62">
-        <v>0</v>
-      </c>
       <c r="D62">
         <v>1</v>
       </c>
@@ -2284,12 +2134,6 @@
       <c r="B63" t="s">
         <v>337</v>
       </c>
-      <c r="C63">
-        <v>0</v>
-      </c>
-      <c r="D63">
-        <v>0</v>
-      </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
@@ -2298,9 +2142,6 @@
       <c r="B64" t="s">
         <v>337</v>
       </c>
-      <c r="C64">
-        <v>0</v>
-      </c>
       <c r="D64">
         <v>3</v>
       </c>
@@ -2312,9 +2153,6 @@
       <c r="B65" t="s">
         <v>322</v>
       </c>
-      <c r="C65">
-        <v>0</v>
-      </c>
       <c r="D65">
         <v>9</v>
       </c>
@@ -2326,9 +2164,6 @@
       <c r="B66" t="s">
         <v>324</v>
       </c>
-      <c r="C66">
-        <v>0</v>
-      </c>
       <c r="D66">
         <v>4</v>
       </c>
@@ -2340,9 +2175,6 @@
       <c r="B67" t="s">
         <v>329</v>
       </c>
-      <c r="C67">
-        <v>0</v>
-      </c>
       <c r="D67">
         <v>5</v>
       </c>
@@ -2354,9 +2186,6 @@
       <c r="B68" t="s">
         <v>329</v>
       </c>
-      <c r="C68">
-        <v>0</v>
-      </c>
       <c r="D68">
         <v>18</v>
       </c>
@@ -2368,9 +2197,6 @@
       <c r="B69" t="s">
         <v>328</v>
       </c>
-      <c r="C69">
-        <v>0</v>
-      </c>
       <c r="D69">
         <v>10</v>
       </c>
@@ -2382,9 +2208,6 @@
       <c r="B70" t="s">
         <v>328</v>
       </c>
-      <c r="C70">
-        <v>0</v>
-      </c>
       <c r="D70">
         <v>2</v>
       </c>
@@ -2396,9 +2219,6 @@
       <c r="B71" t="s">
         <v>327</v>
       </c>
-      <c r="C71">
-        <v>0</v>
-      </c>
       <c r="D71">
         <v>3</v>
       </c>
@@ -2410,9 +2230,6 @@
       <c r="B72" t="s">
         <v>327</v>
       </c>
-      <c r="C72">
-        <v>0</v>
-      </c>
       <c r="D72">
         <v>4</v>
       </c>
@@ -2425,10 +2242,7 @@
         <v>328</v>
       </c>
       <c r="C73">
-        <v>0</v>
-      </c>
-      <c r="D73">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2452,12 +2266,6 @@
       <c r="B75" t="s">
         <v>328</v>
       </c>
-      <c r="C75">
-        <v>0</v>
-      </c>
-      <c r="D75">
-        <v>0</v>
-      </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
@@ -2466,9 +2274,6 @@
       <c r="B76" t="s">
         <v>324</v>
       </c>
-      <c r="C76">
-        <v>0</v>
-      </c>
       <c r="D76">
         <v>9</v>
       </c>
@@ -2480,9 +2285,6 @@
       <c r="B77" t="s">
         <v>328</v>
       </c>
-      <c r="C77">
-        <v>0</v>
-      </c>
       <c r="D77">
         <v>4</v>
       </c>
@@ -2494,9 +2296,6 @@
       <c r="B78" t="s">
         <v>323</v>
       </c>
-      <c r="C78">
-        <v>0</v>
-      </c>
       <c r="D78">
         <v>14</v>
       </c>
@@ -2508,9 +2307,6 @@
       <c r="B79" t="s">
         <v>333</v>
       </c>
-      <c r="C79">
-        <v>0</v>
-      </c>
       <c r="D79">
         <v>2</v>
       </c>
@@ -2522,9 +2318,6 @@
       <c r="B80" t="s">
         <v>326</v>
       </c>
-      <c r="C80">
-        <v>0</v>
-      </c>
       <c r="D80">
         <v>3</v>
       </c>
@@ -2536,9 +2329,6 @@
       <c r="B81" t="s">
         <v>326</v>
       </c>
-      <c r="C81">
-        <v>0</v>
-      </c>
       <c r="D81">
         <v>3</v>
       </c>
@@ -2550,9 +2340,6 @@
       <c r="B82" t="s">
         <v>326</v>
       </c>
-      <c r="C82">
-        <v>0</v>
-      </c>
       <c r="D82">
         <v>2</v>
       </c>
@@ -2565,7 +2352,7 @@
         <v>323</v>
       </c>
       <c r="C83">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="D83">
         <v>73</v>
@@ -2579,7 +2366,7 @@
         <v>328</v>
       </c>
       <c r="C84">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D84">
         <v>2</v>
@@ -2592,9 +2379,6 @@
       <c r="B85" t="s">
         <v>328</v>
       </c>
-      <c r="C85">
-        <v>0</v>
-      </c>
       <c r="D85">
         <v>178</v>
       </c>
@@ -2607,7 +2391,7 @@
         <v>329</v>
       </c>
       <c r="C86">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D86">
         <v>199</v>
@@ -2620,9 +2404,6 @@
       <c r="B87" t="s">
         <v>327</v>
       </c>
-      <c r="C87">
-        <v>0</v>
-      </c>
       <c r="D87">
         <v>1</v>
       </c>
@@ -2634,9 +2415,6 @@
       <c r="B88" t="s">
         <v>328</v>
       </c>
-      <c r="C88">
-        <v>0</v>
-      </c>
       <c r="D88">
         <v>1</v>
       </c>
@@ -2648,9 +2426,6 @@
       <c r="B89" t="s">
         <v>338</v>
       </c>
-      <c r="C89">
-        <v>0</v>
-      </c>
       <c r="D89">
         <v>1</v>
       </c>
@@ -2662,9 +2437,6 @@
       <c r="B90" t="s">
         <v>333</v>
       </c>
-      <c r="C90">
-        <v>0</v>
-      </c>
       <c r="D90">
         <v>27</v>
       </c>
@@ -2677,7 +2449,7 @@
         <v>328</v>
       </c>
       <c r="C91">
-        <v>0</v>
+        <v>1022</v>
       </c>
       <c r="D91">
         <v>306</v>
@@ -2690,9 +2462,6 @@
       <c r="B92" t="s">
         <v>328</v>
       </c>
-      <c r="C92">
-        <v>0</v>
-      </c>
       <c r="D92">
         <v>1</v>
       </c>
@@ -2704,9 +2473,6 @@
       <c r="B93" t="s">
         <v>333</v>
       </c>
-      <c r="C93">
-        <v>0</v>
-      </c>
       <c r="D93">
         <v>16</v>
       </c>
@@ -2718,9 +2484,6 @@
       <c r="B94" t="s">
         <v>328</v>
       </c>
-      <c r="C94">
-        <v>0</v>
-      </c>
       <c r="D94">
         <v>439</v>
       </c>
@@ -2732,12 +2495,6 @@
       <c r="B95" t="s">
         <v>328</v>
       </c>
-      <c r="C95">
-        <v>0</v>
-      </c>
-      <c r="D95">
-        <v>0</v>
-      </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
@@ -2746,9 +2503,6 @@
       <c r="B96" t="s">
         <v>328</v>
       </c>
-      <c r="C96">
-        <v>0</v>
-      </c>
       <c r="D96">
         <v>4</v>
       </c>
@@ -2760,9 +2514,6 @@
       <c r="B97" t="s">
         <v>325</v>
       </c>
-      <c r="C97">
-        <v>0</v>
-      </c>
       <c r="D97">
         <v>29</v>
       </c>
@@ -2774,9 +2525,6 @@
       <c r="B98" t="s">
         <v>322</v>
       </c>
-      <c r="C98">
-        <v>0</v>
-      </c>
       <c r="D98">
         <v>2</v>
       </c>
@@ -2788,9 +2536,6 @@
       <c r="B99" t="s">
         <v>337</v>
       </c>
-      <c r="C99">
-        <v>0</v>
-      </c>
       <c r="D99">
         <v>3</v>
       </c>
@@ -2802,9 +2547,6 @@
       <c r="B100" t="s">
         <v>328</v>
       </c>
-      <c r="C100">
-        <v>0</v>
-      </c>
       <c r="D100">
         <v>1</v>
       </c>
@@ -2816,9 +2558,6 @@
       <c r="B101" t="s">
         <v>324</v>
       </c>
-      <c r="C101">
-        <v>0</v>
-      </c>
       <c r="D101">
         <v>4</v>
       </c>
@@ -2830,12 +2569,6 @@
       <c r="B102" t="s">
         <v>338</v>
       </c>
-      <c r="C102">
-        <v>0</v>
-      </c>
-      <c r="D102">
-        <v>0</v>
-      </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" t="s">
@@ -2844,9 +2577,6 @@
       <c r="B103" t="s">
         <v>328</v>
       </c>
-      <c r="C103">
-        <v>0</v>
-      </c>
       <c r="D103">
         <v>20</v>
       </c>
@@ -2858,12 +2588,6 @@
       <c r="B104" t="s">
         <v>328</v>
       </c>
-      <c r="C104">
-        <v>0</v>
-      </c>
-      <c r="D104">
-        <v>0</v>
-      </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" t="s">
@@ -2872,12 +2596,6 @@
       <c r="B105" t="s">
         <v>328</v>
       </c>
-      <c r="C105">
-        <v>0</v>
-      </c>
-      <c r="D105">
-        <v>0</v>
-      </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" t="s">
@@ -2886,9 +2604,6 @@
       <c r="B106" t="s">
         <v>328</v>
       </c>
-      <c r="C106">
-        <v>0</v>
-      </c>
       <c r="D106">
         <v>1</v>
       </c>
@@ -2901,7 +2616,7 @@
         <v>326</v>
       </c>
       <c r="C107">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D107">
         <v>22</v>
@@ -2914,12 +2629,6 @@
       <c r="B108" t="s">
         <v>326</v>
       </c>
-      <c r="C108">
-        <v>0</v>
-      </c>
-      <c r="D108">
-        <v>0</v>
-      </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" t="s">
@@ -2929,7 +2638,7 @@
         <v>328</v>
       </c>
       <c r="C109">
-        <v>5</v>
+        <v>83</v>
       </c>
       <c r="D109">
         <v>1869</v>
@@ -2942,9 +2651,6 @@
       <c r="B110" t="s">
         <v>328</v>
       </c>
-      <c r="C110">
-        <v>0</v>
-      </c>
       <c r="D110">
         <v>6</v>
       </c>
@@ -2956,9 +2662,6 @@
       <c r="B111" t="s">
         <v>323</v>
       </c>
-      <c r="C111">
-        <v>0</v>
-      </c>
       <c r="D111">
         <v>45</v>
       </c>
@@ -2970,12 +2673,6 @@
       <c r="B112" t="s">
         <v>324</v>
       </c>
-      <c r="C112">
-        <v>0</v>
-      </c>
-      <c r="D112">
-        <v>0</v>
-      </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" t="s">
@@ -2984,9 +2681,6 @@
       <c r="B113" t="s">
         <v>327</v>
       </c>
-      <c r="C113">
-        <v>0</v>
-      </c>
       <c r="D113">
         <v>13</v>
       </c>
@@ -2998,9 +2692,6 @@
       <c r="B114" t="s">
         <v>324</v>
       </c>
-      <c r="C114">
-        <v>0</v>
-      </c>
       <c r="D114">
         <v>3</v>
       </c>
@@ -3012,9 +2703,6 @@
       <c r="B115" t="s">
         <v>324</v>
       </c>
-      <c r="C115">
-        <v>0</v>
-      </c>
       <c r="D115">
         <v>3</v>
       </c>
@@ -3026,9 +2714,6 @@
       <c r="B116" t="s">
         <v>323</v>
       </c>
-      <c r="C116">
-        <v>0</v>
-      </c>
       <c r="D116">
         <v>11</v>
       </c>
@@ -3040,9 +2725,6 @@
       <c r="B117" t="s">
         <v>324</v>
       </c>
-      <c r="C117">
-        <v>0</v>
-      </c>
       <c r="D117">
         <v>7</v>
       </c>
@@ -3055,7 +2737,7 @@
         <v>331</v>
       </c>
       <c r="C118">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D118">
         <v>168</v>
@@ -3068,9 +2750,6 @@
       <c r="B119" t="s">
         <v>324</v>
       </c>
-      <c r="C119">
-        <v>0</v>
-      </c>
       <c r="D119">
         <v>11</v>
       </c>
@@ -3082,12 +2761,6 @@
       <c r="B120" t="s">
         <v>337</v>
       </c>
-      <c r="C120">
-        <v>0</v>
-      </c>
-      <c r="D120">
-        <v>0</v>
-      </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" t="s">
@@ -3096,9 +2769,6 @@
       <c r="B121" t="s">
         <v>328</v>
       </c>
-      <c r="C121">
-        <v>0</v>
-      </c>
       <c r="D121">
         <v>1</v>
       </c>
@@ -3110,9 +2780,6 @@
       <c r="B122" t="s">
         <v>330</v>
       </c>
-      <c r="C122">
-        <v>0</v>
-      </c>
       <c r="D122">
         <v>17</v>
       </c>
@@ -3124,9 +2791,6 @@
       <c r="B123" t="s">
         <v>337</v>
       </c>
-      <c r="C123">
-        <v>0</v>
-      </c>
       <c r="D123">
         <v>2</v>
       </c>
@@ -3138,9 +2802,6 @@
       <c r="B124" t="s">
         <v>323</v>
       </c>
-      <c r="C124">
-        <v>0</v>
-      </c>
       <c r="D124">
         <v>68</v>
       </c>
@@ -3152,9 +2813,6 @@
       <c r="B125" t="s">
         <v>322</v>
       </c>
-      <c r="C125">
-        <v>0</v>
-      </c>
       <c r="D125">
         <v>38</v>
       </c>
@@ -3166,9 +2824,6 @@
       <c r="B126" t="s">
         <v>324</v>
       </c>
-      <c r="C126">
-        <v>0</v>
-      </c>
       <c r="D126">
         <v>18</v>
       </c>
@@ -3180,9 +2835,6 @@
       <c r="B127" t="s">
         <v>328</v>
       </c>
-      <c r="C127">
-        <v>0</v>
-      </c>
       <c r="D127">
         <v>18</v>
       </c>
@@ -3194,9 +2846,6 @@
       <c r="B128" t="s">
         <v>328</v>
       </c>
-      <c r="C128">
-        <v>0</v>
-      </c>
       <c r="D128">
         <v>2</v>
       </c>
@@ -3209,7 +2858,7 @@
         <v>333</v>
       </c>
       <c r="C129">
-        <v>0</v>
+        <v>157</v>
       </c>
       <c r="D129">
         <v>66</v>
@@ -3222,9 +2871,6 @@
       <c r="B130" t="s">
         <v>328</v>
       </c>
-      <c r="C130">
-        <v>0</v>
-      </c>
       <c r="D130">
         <v>4</v>
       </c>
@@ -3236,9 +2882,6 @@
       <c r="B131" t="s">
         <v>338</v>
       </c>
-      <c r="C131">
-        <v>0</v>
-      </c>
       <c r="D131">
         <v>4</v>
       </c>
@@ -3250,9 +2893,6 @@
       <c r="B132" t="s">
         <v>324</v>
       </c>
-      <c r="C132">
-        <v>0</v>
-      </c>
       <c r="D132">
         <v>1</v>
       </c>
@@ -3264,12 +2904,6 @@
       <c r="B133" t="s">
         <v>324</v>
       </c>
-      <c r="C133">
-        <v>0</v>
-      </c>
-      <c r="D133">
-        <v>0</v>
-      </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" t="s">
@@ -3278,9 +2912,6 @@
       <c r="B134" t="s">
         <v>333</v>
       </c>
-      <c r="C134">
-        <v>0</v>
-      </c>
       <c r="D134">
         <v>1</v>
       </c>
@@ -3306,9 +2937,6 @@
       <c r="B136" t="s">
         <v>324</v>
       </c>
-      <c r="C136">
-        <v>0</v>
-      </c>
       <c r="D136">
         <v>2</v>
       </c>
@@ -3320,9 +2948,6 @@
       <c r="B137" t="s">
         <v>327</v>
       </c>
-      <c r="C137">
-        <v>0</v>
-      </c>
       <c r="D137">
         <v>82</v>
       </c>
@@ -3334,9 +2959,6 @@
       <c r="B138" t="s">
         <v>327</v>
       </c>
-      <c r="C138">
-        <v>0</v>
-      </c>
       <c r="D138">
         <v>10</v>
       </c>
@@ -3348,12 +2970,6 @@
       <c r="B139" t="s">
         <v>323</v>
       </c>
-      <c r="C139">
-        <v>0</v>
-      </c>
-      <c r="D139">
-        <v>0</v>
-      </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" t="s">
@@ -3362,12 +2978,6 @@
       <c r="B140" t="s">
         <v>328</v>
       </c>
-      <c r="C140">
-        <v>0</v>
-      </c>
-      <c r="D140">
-        <v>0</v>
-      </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" t="s">
@@ -3376,9 +2986,6 @@
       <c r="B141" t="s">
         <v>328</v>
       </c>
-      <c r="C141">
-        <v>0</v>
-      </c>
       <c r="D141">
         <v>3</v>
       </c>
@@ -3390,9 +2997,6 @@
       <c r="B142" t="s">
         <v>324</v>
       </c>
-      <c r="C142">
-        <v>0</v>
-      </c>
       <c r="D142">
         <v>2</v>
       </c>
@@ -3404,9 +3008,6 @@
       <c r="B143" t="s">
         <v>337</v>
       </c>
-      <c r="C143">
-        <v>0</v>
-      </c>
       <c r="D143">
         <v>1</v>
       </c>
@@ -3418,9 +3019,6 @@
       <c r="B144" t="s">
         <v>333</v>
       </c>
-      <c r="C144">
-        <v>0</v>
-      </c>
       <c r="D144">
         <v>120</v>
       </c>
@@ -3432,9 +3030,6 @@
       <c r="B145" t="s">
         <v>328</v>
       </c>
-      <c r="C145">
-        <v>0</v>
-      </c>
       <c r="D145">
         <v>1</v>
       </c>
@@ -3446,9 +3041,6 @@
       <c r="B146" t="s">
         <v>330</v>
       </c>
-      <c r="C146">
-        <v>0</v>
-      </c>
       <c r="D146">
         <v>285</v>
       </c>
@@ -3460,9 +3052,6 @@
       <c r="B147" t="s">
         <v>331</v>
       </c>
-      <c r="C147">
-        <v>0</v>
-      </c>
       <c r="D147">
         <v>9</v>
       </c>
@@ -3474,9 +3063,6 @@
       <c r="B148" t="s">
         <v>323</v>
       </c>
-      <c r="C148">
-        <v>0</v>
-      </c>
       <c r="D148">
         <v>9</v>
       </c>
@@ -3488,9 +3074,6 @@
       <c r="B149" t="s">
         <v>333</v>
       </c>
-      <c r="C149">
-        <v>0</v>
-      </c>
       <c r="D149">
         <v>4</v>
       </c>
@@ -3502,9 +3085,6 @@
       <c r="B150" t="s">
         <v>324</v>
       </c>
-      <c r="C150">
-        <v>0</v>
-      </c>
       <c r="D150">
         <v>35</v>
       </c>
@@ -3516,9 +3096,6 @@
       <c r="B151" t="s">
         <v>339</v>
       </c>
-      <c r="C151">
-        <v>0</v>
-      </c>
       <c r="D151">
         <v>12</v>
       </c>
@@ -3530,9 +3107,6 @@
       <c r="B152" t="s">
         <v>339</v>
       </c>
-      <c r="C152">
-        <v>0</v>
-      </c>
       <c r="D152">
         <v>9</v>
       </c>
@@ -3544,9 +3118,6 @@
       <c r="B153" t="s">
         <v>328</v>
       </c>
-      <c r="C153">
-        <v>0</v>
-      </c>
       <c r="D153">
         <v>6</v>
       </c>
@@ -3558,12 +3129,6 @@
       <c r="B154" t="s">
         <v>323</v>
       </c>
-      <c r="C154">
-        <v>0</v>
-      </c>
-      <c r="D154">
-        <v>0</v>
-      </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" t="s">
@@ -3573,7 +3138,7 @@
         <v>329</v>
       </c>
       <c r="C155">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D155">
         <v>10</v>
@@ -3586,9 +3151,6 @@
       <c r="B156" t="s">
         <v>339</v>
       </c>
-      <c r="C156">
-        <v>0</v>
-      </c>
       <c r="D156">
         <v>1</v>
       </c>
@@ -3600,9 +3162,6 @@
       <c r="B157" t="s">
         <v>335</v>
       </c>
-      <c r="C157">
-        <v>0</v>
-      </c>
       <c r="D157">
         <v>13</v>
       </c>
@@ -3614,9 +3173,6 @@
       <c r="B158" t="s">
         <v>328</v>
       </c>
-      <c r="C158">
-        <v>0</v>
-      </c>
       <c r="D158">
         <v>5</v>
       </c>
@@ -3628,12 +3184,6 @@
       <c r="B159" t="s">
         <v>338</v>
       </c>
-      <c r="C159">
-        <v>0</v>
-      </c>
-      <c r="D159">
-        <v>0</v>
-      </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" t="s">
@@ -3642,9 +3192,6 @@
       <c r="B160" t="s">
         <v>328</v>
       </c>
-      <c r="C160">
-        <v>0</v>
-      </c>
       <c r="D160">
         <v>3</v>
       </c>
@@ -3656,9 +3203,6 @@
       <c r="B161" t="s">
         <v>332</v>
       </c>
-      <c r="C161">
-        <v>0</v>
-      </c>
       <c r="D161">
         <v>30</v>
       </c>
@@ -3670,12 +3214,6 @@
       <c r="B162" t="s">
         <v>334</v>
       </c>
-      <c r="C162">
-        <v>0</v>
-      </c>
-      <c r="D162">
-        <v>0</v>
-      </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" t="s">
@@ -3698,9 +3236,6 @@
       <c r="B164" t="s">
         <v>328</v>
       </c>
-      <c r="C164">
-        <v>0</v>
-      </c>
       <c r="D164">
         <v>7</v>
       </c>
@@ -3712,9 +3247,6 @@
       <c r="B165" t="s">
         <v>328</v>
       </c>
-      <c r="C165">
-        <v>0</v>
-      </c>
       <c r="D165">
         <v>22</v>
       </c>
@@ -3726,9 +3258,6 @@
       <c r="B166" t="s">
         <v>324</v>
       </c>
-      <c r="C166">
-        <v>0</v>
-      </c>
       <c r="D166">
         <v>2</v>
       </c>
@@ -3740,12 +3269,6 @@
       <c r="B167" t="s">
         <v>331</v>
       </c>
-      <c r="C167">
-        <v>0</v>
-      </c>
-      <c r="D167">
-        <v>0</v>
-      </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" t="s">
@@ -3754,9 +3277,6 @@
       <c r="B168" t="s">
         <v>331</v>
       </c>
-      <c r="C168">
-        <v>0</v>
-      </c>
       <c r="D168">
         <v>15</v>
       </c>
@@ -3768,9 +3288,6 @@
       <c r="B169" t="s">
         <v>339</v>
       </c>
-      <c r="C169">
-        <v>0</v>
-      </c>
       <c r="D169">
         <v>4</v>
       </c>
@@ -3782,9 +3299,6 @@
       <c r="B170" t="s">
         <v>337</v>
       </c>
-      <c r="C170">
-        <v>0</v>
-      </c>
       <c r="D170">
         <v>9</v>
       </c>
@@ -3796,12 +3310,6 @@
       <c r="B171" t="s">
         <v>322</v>
       </c>
-      <c r="C171">
-        <v>0</v>
-      </c>
-      <c r="D171">
-        <v>0</v>
-      </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172" t="s">
@@ -3810,12 +3318,6 @@
       <c r="B172" t="s">
         <v>328</v>
       </c>
-      <c r="C172">
-        <v>0</v>
-      </c>
-      <c r="D172">
-        <v>0</v>
-      </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" t="s">
@@ -3824,9 +3326,6 @@
       <c r="B173" t="s">
         <v>328</v>
       </c>
-      <c r="C173">
-        <v>0</v>
-      </c>
       <c r="D173">
         <v>193</v>
       </c>
@@ -3838,9 +3337,6 @@
       <c r="B174" t="s">
         <v>327</v>
       </c>
-      <c r="C174">
-        <v>0</v>
-      </c>
       <c r="D174">
         <v>15</v>
       </c>
@@ -3852,9 +3348,6 @@
       <c r="B175" t="s">
         <v>328</v>
       </c>
-      <c r="C175">
-        <v>0</v>
-      </c>
       <c r="D175">
         <v>2</v>
       </c>
@@ -3866,9 +3359,6 @@
       <c r="B176" t="s">
         <v>331</v>
       </c>
-      <c r="C176">
-        <v>0</v>
-      </c>
       <c r="D176">
         <v>35</v>
       </c>
@@ -3880,9 +3370,6 @@
       <c r="B177" t="s">
         <v>323</v>
       </c>
-      <c r="C177">
-        <v>0</v>
-      </c>
       <c r="D177">
         <v>1</v>
       </c>
@@ -3894,9 +3381,6 @@
       <c r="B178" t="s">
         <v>324</v>
       </c>
-      <c r="C178">
-        <v>0</v>
-      </c>
       <c r="D178">
         <v>3</v>
       </c>
@@ -3908,12 +3392,6 @@
       <c r="B179" t="s">
         <v>332</v>
       </c>
-      <c r="C179">
-        <v>0</v>
-      </c>
-      <c r="D179">
-        <v>0</v>
-      </c>
     </row>
     <row r="180" spans="1:4">
       <c r="A180" t="s">
@@ -3922,9 +3400,6 @@
       <c r="B180" t="s">
         <v>327</v>
       </c>
-      <c r="C180">
-        <v>0</v>
-      </c>
       <c r="D180">
         <v>109</v>
       </c>
@@ -3937,7 +3412,7 @@
         <v>326</v>
       </c>
       <c r="C181">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="D181">
         <v>128</v>
@@ -3950,9 +3425,6 @@
       <c r="B182" t="s">
         <v>340</v>
       </c>
-      <c r="C182">
-        <v>0</v>
-      </c>
       <c r="D182">
         <v>4</v>
       </c>
@@ -3965,7 +3437,7 @@
         <v>341</v>
       </c>
       <c r="C183">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D183">
         <v>9</v>
@@ -3979,7 +3451,7 @@
         <v>341</v>
       </c>
       <c r="C184">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="D184">
         <v>8</v>
@@ -3993,7 +3465,7 @@
         <v>322</v>
       </c>
       <c r="C185">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="D185">
         <v>172</v>
@@ -4006,9 +3478,6 @@
       <c r="B186" t="s">
         <v>342</v>
       </c>
-      <c r="C186">
-        <v>0</v>
-      </c>
       <c r="D186">
         <v>53</v>
       </c>
@@ -4020,9 +3489,6 @@
       <c r="B187" t="s">
         <v>328</v>
       </c>
-      <c r="C187">
-        <v>0</v>
-      </c>
       <c r="D187">
         <v>5</v>
       </c>
@@ -4034,9 +3500,6 @@
       <c r="B188" t="s">
         <v>324</v>
       </c>
-      <c r="C188">
-        <v>0</v>
-      </c>
       <c r="D188">
         <v>7</v>
       </c>
@@ -4048,9 +3511,6 @@
       <c r="B189" t="s">
         <v>324</v>
       </c>
-      <c r="C189">
-        <v>0</v>
-      </c>
       <c r="D189">
         <v>15</v>
       </c>
@@ -4062,9 +3522,6 @@
       <c r="B190" t="s">
         <v>324</v>
       </c>
-      <c r="C190">
-        <v>0</v>
-      </c>
       <c r="D190">
         <v>1</v>
       </c>
@@ -4077,7 +3534,7 @@
         <v>323</v>
       </c>
       <c r="C191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D191">
         <v>1187</v>
@@ -4090,9 +3547,6 @@
       <c r="B192" t="s">
         <v>325</v>
       </c>
-      <c r="C192">
-        <v>0</v>
-      </c>
       <c r="D192">
         <v>63</v>
       </c>
@@ -4104,9 +3558,6 @@
       <c r="B193" t="s">
         <v>328</v>
       </c>
-      <c r="C193">
-        <v>0</v>
-      </c>
       <c r="D193">
         <v>352</v>
       </c>
@@ -4118,9 +3569,6 @@
       <c r="B194" t="s">
         <v>337</v>
       </c>
-      <c r="C194">
-        <v>0</v>
-      </c>
       <c r="D194">
         <v>5</v>
       </c>
@@ -4132,9 +3580,6 @@
       <c r="B195" t="s">
         <v>333</v>
       </c>
-      <c r="C195">
-        <v>0</v>
-      </c>
       <c r="D195">
         <v>3</v>
       </c>
@@ -4146,9 +3591,6 @@
       <c r="B196" t="s">
         <v>337</v>
       </c>
-      <c r="C196">
-        <v>0</v>
-      </c>
       <c r="D196">
         <v>15</v>
       </c>
@@ -4160,9 +3602,6 @@
       <c r="B197" t="s">
         <v>328</v>
       </c>
-      <c r="C197">
-        <v>0</v>
-      </c>
       <c r="D197">
         <v>3</v>
       </c>
@@ -4174,9 +3613,6 @@
       <c r="B198" t="s">
         <v>324</v>
       </c>
-      <c r="C198">
-        <v>0</v>
-      </c>
       <c r="D198">
         <v>6</v>
       </c>
@@ -4188,9 +3624,6 @@
       <c r="B199" t="s">
         <v>328</v>
       </c>
-      <c r="C199">
-        <v>0</v>
-      </c>
       <c r="D199">
         <v>8</v>
       </c>
@@ -4202,12 +3635,6 @@
       <c r="B200" t="s">
         <v>329</v>
       </c>
-      <c r="C200">
-        <v>0</v>
-      </c>
-      <c r="D200">
-        <v>0</v>
-      </c>
     </row>
     <row r="201" spans="1:4">
       <c r="A201" t="s">
@@ -4217,7 +3644,7 @@
         <v>329</v>
       </c>
       <c r="C201">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D201">
         <v>5</v>
@@ -4230,9 +3657,6 @@
       <c r="B202" t="s">
         <v>337</v>
       </c>
-      <c r="C202">
-        <v>0</v>
-      </c>
       <c r="D202">
         <v>1</v>
       </c>
@@ -4244,9 +3668,6 @@
       <c r="B203" t="s">
         <v>337</v>
       </c>
-      <c r="C203">
-        <v>0</v>
-      </c>
       <c r="D203">
         <v>1</v>
       </c>
@@ -4259,7 +3680,7 @@
         <v>328</v>
       </c>
       <c r="C204">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="D204">
         <v>39</v>
@@ -4272,9 +3693,6 @@
       <c r="B205" t="s">
         <v>333</v>
       </c>
-      <c r="C205">
-        <v>0</v>
-      </c>
       <c r="D205">
         <v>6</v>
       </c>
@@ -4286,9 +3704,6 @@
       <c r="B206" t="s">
         <v>331</v>
       </c>
-      <c r="C206">
-        <v>0</v>
-      </c>
       <c r="D206">
         <v>1</v>
       </c>
@@ -4300,9 +3715,6 @@
       <c r="B207" t="s">
         <v>337</v>
       </c>
-      <c r="C207">
-        <v>0</v>
-      </c>
       <c r="D207">
         <v>3</v>
       </c>
@@ -4314,9 +3726,6 @@
       <c r="B208" t="s">
         <v>324</v>
       </c>
-      <c r="C208">
-        <v>0</v>
-      </c>
       <c r="D208">
         <v>3</v>
       </c>
@@ -4328,12 +3737,6 @@
       <c r="B209" t="s">
         <v>328</v>
       </c>
-      <c r="C209">
-        <v>0</v>
-      </c>
-      <c r="D209">
-        <v>0</v>
-      </c>
     </row>
     <row r="210" spans="1:4">
       <c r="A210" t="s">
@@ -4342,9 +3745,6 @@
       <c r="B210" t="s">
         <v>329</v>
       </c>
-      <c r="C210">
-        <v>0</v>
-      </c>
       <c r="D210">
         <v>32</v>
       </c>
@@ -4357,7 +3757,7 @@
         <v>328</v>
       </c>
       <c r="C211">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D211">
         <v>5</v>
@@ -4370,9 +3770,6 @@
       <c r="B212" t="s">
         <v>324</v>
       </c>
-      <c r="C212">
-        <v>0</v>
-      </c>
       <c r="D212">
         <v>1</v>
       </c>
@@ -4384,9 +3781,6 @@
       <c r="B213" t="s">
         <v>323</v>
       </c>
-      <c r="C213">
-        <v>0</v>
-      </c>
       <c r="D213">
         <v>2</v>
       </c>
@@ -4398,9 +3792,6 @@
       <c r="B214" t="s">
         <v>323</v>
       </c>
-      <c r="C214">
-        <v>0</v>
-      </c>
       <c r="D214">
         <v>18</v>
       </c>
@@ -4413,7 +3804,7 @@
         <v>323</v>
       </c>
       <c r="C215">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="D215">
         <v>51</v>
@@ -4426,9 +3817,6 @@
       <c r="B216" t="s">
         <v>324</v>
       </c>
-      <c r="C216">
-        <v>0</v>
-      </c>
       <c r="D216">
         <v>7</v>
       </c>
@@ -4440,9 +3828,6 @@
       <c r="B217" t="s">
         <v>325</v>
       </c>
-      <c r="C217">
-        <v>0</v>
-      </c>
       <c r="D217">
         <v>15</v>
       </c>
@@ -4454,9 +3839,6 @@
       <c r="B218" t="s">
         <v>331</v>
       </c>
-      <c r="C218">
-        <v>0</v>
-      </c>
       <c r="D218">
         <v>34</v>
       </c>
@@ -4468,9 +3850,6 @@
       <c r="B219" t="s">
         <v>328</v>
       </c>
-      <c r="C219">
-        <v>0</v>
-      </c>
       <c r="D219">
         <v>135</v>
       </c>
@@ -4482,9 +3861,6 @@
       <c r="B220" t="s">
         <v>323</v>
       </c>
-      <c r="C220">
-        <v>0</v>
-      </c>
       <c r="D220">
         <v>2</v>
       </c>
@@ -4496,9 +3872,6 @@
       <c r="B221" t="s">
         <v>323</v>
       </c>
-      <c r="C221">
-        <v>0</v>
-      </c>
       <c r="D221">
         <v>2</v>
       </c>
@@ -4510,9 +3883,6 @@
       <c r="B222" t="s">
         <v>332</v>
       </c>
-      <c r="C222">
-        <v>0</v>
-      </c>
       <c r="D222">
         <v>38</v>
       </c>
@@ -4524,9 +3894,6 @@
       <c r="B223" t="s">
         <v>323</v>
       </c>
-      <c r="C223">
-        <v>0</v>
-      </c>
       <c r="D223">
         <v>2</v>
       </c>
@@ -4538,9 +3905,6 @@
       <c r="B224" t="s">
         <v>324</v>
       </c>
-      <c r="C224">
-        <v>0</v>
-      </c>
       <c r="D224">
         <v>34</v>
       </c>
@@ -4552,9 +3916,6 @@
       <c r="B225" t="s">
         <v>331</v>
       </c>
-      <c r="C225">
-        <v>0</v>
-      </c>
       <c r="D225">
         <v>3</v>
       </c>
@@ -4580,9 +3941,6 @@
       <c r="B227" t="s">
         <v>328</v>
       </c>
-      <c r="C227">
-        <v>0</v>
-      </c>
       <c r="D227">
         <v>6</v>
       </c>
@@ -4594,9 +3952,6 @@
       <c r="B228" t="s">
         <v>332</v>
       </c>
-      <c r="C228">
-        <v>0</v>
-      </c>
       <c r="D228">
         <v>18</v>
       </c>
@@ -4608,9 +3963,6 @@
       <c r="B229" t="s">
         <v>340</v>
       </c>
-      <c r="C229">
-        <v>0</v>
-      </c>
       <c r="D229">
         <v>25</v>
       </c>
@@ -4622,9 +3974,6 @@
       <c r="B230" t="s">
         <v>325</v>
       </c>
-      <c r="C230">
-        <v>0</v>
-      </c>
       <c r="D230">
         <v>4</v>
       </c>
@@ -4636,12 +3985,6 @@
       <c r="B231" t="s">
         <v>334</v>
       </c>
-      <c r="C231">
-        <v>0</v>
-      </c>
-      <c r="D231">
-        <v>0</v>
-      </c>
     </row>
     <row r="232" spans="1:4">
       <c r="A232" t="s">
@@ -4650,9 +3993,6 @@
       <c r="B232" t="s">
         <v>324</v>
       </c>
-      <c r="C232">
-        <v>0</v>
-      </c>
       <c r="D232">
         <v>26</v>
       </c>
@@ -4664,9 +4004,6 @@
       <c r="B233" t="s">
         <v>324</v>
       </c>
-      <c r="C233">
-        <v>0</v>
-      </c>
       <c r="D233">
         <v>26</v>
       </c>
@@ -4678,9 +4015,6 @@
       <c r="B234" t="s">
         <v>324</v>
       </c>
-      <c r="C234">
-        <v>0</v>
-      </c>
       <c r="D234">
         <v>14</v>
       </c>
@@ -4692,9 +4026,6 @@
       <c r="B235" t="s">
         <v>324</v>
       </c>
-      <c r="C235">
-        <v>0</v>
-      </c>
       <c r="D235">
         <v>24</v>
       </c>
@@ -4706,9 +4037,6 @@
       <c r="B236" t="s">
         <v>326</v>
       </c>
-      <c r="C236">
-        <v>0</v>
-      </c>
       <c r="D236">
         <v>3</v>
       </c>
@@ -4720,9 +4048,6 @@
       <c r="B237" t="s">
         <v>332</v>
       </c>
-      <c r="C237">
-        <v>0</v>
-      </c>
       <c r="D237">
         <v>253</v>
       </c>
@@ -4734,9 +4059,6 @@
       <c r="B238" t="s">
         <v>326</v>
       </c>
-      <c r="C238">
-        <v>0</v>
-      </c>
       <c r="D238">
         <v>5</v>
       </c>
@@ -4748,9 +4070,6 @@
       <c r="B239" t="s">
         <v>329</v>
       </c>
-      <c r="C239">
-        <v>0</v>
-      </c>
       <c r="D239">
         <v>1</v>
       </c>
@@ -4762,9 +4081,6 @@
       <c r="B240" t="s">
         <v>332</v>
       </c>
-      <c r="C240">
-        <v>0</v>
-      </c>
       <c r="D240">
         <v>78</v>
       </c>
@@ -4776,9 +4092,6 @@
       <c r="B241" t="s">
         <v>328</v>
       </c>
-      <c r="C241">
-        <v>0</v>
-      </c>
       <c r="D241">
         <v>15</v>
       </c>
@@ -4790,9 +4103,6 @@
       <c r="B242" t="s">
         <v>323</v>
       </c>
-      <c r="C242">
-        <v>0</v>
-      </c>
       <c r="D242">
         <v>44</v>
       </c>
@@ -4818,9 +4128,6 @@
       <c r="B244" t="s">
         <v>328</v>
       </c>
-      <c r="C244">
-        <v>0</v>
-      </c>
       <c r="D244">
         <v>9</v>
       </c>
@@ -4832,9 +4139,6 @@
       <c r="B245" t="s">
         <v>329</v>
       </c>
-      <c r="C245">
-        <v>0</v>
-      </c>
       <c r="D245">
         <v>2</v>
       </c>
@@ -4846,9 +4150,6 @@
       <c r="B246" t="s">
         <v>328</v>
       </c>
-      <c r="C246">
-        <v>0</v>
-      </c>
       <c r="D246">
         <v>14</v>
       </c>
@@ -4860,9 +4161,6 @@
       <c r="B247" t="s">
         <v>323</v>
       </c>
-      <c r="C247">
-        <v>0</v>
-      </c>
       <c r="D247">
         <v>3</v>
       </c>
@@ -4874,9 +4172,6 @@
       <c r="B248" t="s">
         <v>328</v>
       </c>
-      <c r="C248">
-        <v>0</v>
-      </c>
       <c r="D248">
         <v>1</v>
       </c>
@@ -4888,9 +4183,6 @@
       <c r="B249" t="s">
         <v>328</v>
       </c>
-      <c r="C249">
-        <v>0</v>
-      </c>
       <c r="D249">
         <v>4</v>
       </c>
@@ -4902,9 +4194,6 @@
       <c r="B250" t="s">
         <v>324</v>
       </c>
-      <c r="C250">
-        <v>0</v>
-      </c>
       <c r="D250">
         <v>7</v>
       </c>
@@ -4916,12 +4205,6 @@
       <c r="B251" t="s">
         <v>328</v>
       </c>
-      <c r="C251">
-        <v>0</v>
-      </c>
-      <c r="D251">
-        <v>0</v>
-      </c>
     </row>
     <row r="252" spans="1:4">
       <c r="A252" t="s">
@@ -4930,9 +4213,6 @@
       <c r="B252" t="s">
         <v>333</v>
       </c>
-      <c r="C252">
-        <v>0</v>
-      </c>
       <c r="D252">
         <v>1</v>
       </c>
@@ -4944,9 +4224,6 @@
       <c r="B253" t="s">
         <v>333</v>
       </c>
-      <c r="C253">
-        <v>0</v>
-      </c>
       <c r="D253">
         <v>5</v>
       </c>
@@ -4958,9 +4235,6 @@
       <c r="B254" t="s">
         <v>333</v>
       </c>
-      <c r="C254">
-        <v>0</v>
-      </c>
       <c r="D254">
         <v>1</v>
       </c>
@@ -4973,7 +4247,7 @@
         <v>328</v>
       </c>
       <c r="C255">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D255">
         <v>2</v>
@@ -4986,9 +4260,6 @@
       <c r="B256" t="s">
         <v>331</v>
       </c>
-      <c r="C256">
-        <v>0</v>
-      </c>
       <c r="D256">
         <v>12</v>
       </c>
@@ -5000,9 +4271,6 @@
       <c r="B257" t="s">
         <v>328</v>
       </c>
-      <c r="C257">
-        <v>0</v>
-      </c>
       <c r="D257">
         <v>2</v>
       </c>
@@ -5014,9 +4282,6 @@
       <c r="B258" t="s">
         <v>324</v>
       </c>
-      <c r="C258">
-        <v>0</v>
-      </c>
       <c r="D258">
         <v>3</v>
       </c>
@@ -5028,9 +4293,6 @@
       <c r="B259" t="s">
         <v>328</v>
       </c>
-      <c r="C259">
-        <v>0</v>
-      </c>
       <c r="D259">
         <v>30</v>
       </c>
@@ -5042,9 +4304,6 @@
       <c r="B260" t="s">
         <v>337</v>
       </c>
-      <c r="C260">
-        <v>0</v>
-      </c>
       <c r="D260">
         <v>12</v>
       </c>
@@ -5056,9 +4315,6 @@
       <c r="B261" t="s">
         <v>333</v>
       </c>
-      <c r="C261">
-        <v>0</v>
-      </c>
       <c r="D261">
         <v>2</v>
       </c>
@@ -5070,9 +4326,6 @@
       <c r="B262" t="s">
         <v>329</v>
       </c>
-      <c r="C262">
-        <v>0</v>
-      </c>
       <c r="D262">
         <v>10</v>
       </c>
@@ -5084,9 +4337,6 @@
       <c r="B263" t="s">
         <v>331</v>
       </c>
-      <c r="C263">
-        <v>0</v>
-      </c>
       <c r="D263">
         <v>9</v>
       </c>
@@ -5098,9 +4348,6 @@
       <c r="B264" t="s">
         <v>331</v>
       </c>
-      <c r="C264">
-        <v>0</v>
-      </c>
       <c r="D264">
         <v>33</v>
       </c>
@@ -5112,9 +4359,6 @@
       <c r="B265" t="s">
         <v>328</v>
       </c>
-      <c r="C265">
-        <v>0</v>
-      </c>
       <c r="D265">
         <v>6</v>
       </c>
@@ -5126,9 +4370,6 @@
       <c r="B266" t="s">
         <v>328</v>
       </c>
-      <c r="C266">
-        <v>0</v>
-      </c>
       <c r="D266">
         <v>2</v>
       </c>
@@ -5140,9 +4381,6 @@
       <c r="B267" t="s">
         <v>328</v>
       </c>
-      <c r="C267">
-        <v>0</v>
-      </c>
       <c r="D267">
         <v>1</v>
       </c>
@@ -5154,9 +4392,6 @@
       <c r="B268" t="s">
         <v>326</v>
       </c>
-      <c r="C268">
-        <v>0</v>
-      </c>
       <c r="D268">
         <v>136</v>
       </c>
@@ -5168,9 +4403,6 @@
       <c r="B269" t="s">
         <v>332</v>
       </c>
-      <c r="C269">
-        <v>0</v>
-      </c>
       <c r="D269">
         <v>231</v>
       </c>
@@ -5182,9 +4414,6 @@
       <c r="B270" t="s">
         <v>328</v>
       </c>
-      <c r="C270">
-        <v>0</v>
-      </c>
       <c r="D270">
         <v>3</v>
       </c>
@@ -5196,9 +4425,6 @@
       <c r="B271" t="s">
         <v>328</v>
       </c>
-      <c r="C271">
-        <v>0</v>
-      </c>
       <c r="D271">
         <v>18</v>
       </c>
@@ -5210,12 +4436,6 @@
       <c r="B272" t="s">
         <v>333</v>
       </c>
-      <c r="C272">
-        <v>0</v>
-      </c>
-      <c r="D272">
-        <v>0</v>
-      </c>
     </row>
     <row r="273" spans="1:4">
       <c r="A273" t="s">
@@ -5224,9 +4444,6 @@
       <c r="B273" t="s">
         <v>337</v>
       </c>
-      <c r="C273">
-        <v>0</v>
-      </c>
       <c r="D273">
         <v>2</v>
       </c>
@@ -5238,12 +4455,6 @@
       <c r="B274" t="s">
         <v>337</v>
       </c>
-      <c r="C274">
-        <v>0</v>
-      </c>
-      <c r="D274">
-        <v>0</v>
-      </c>
     </row>
     <row r="275" spans="1:4">
       <c r="A275" t="s">
@@ -5252,9 +4463,6 @@
       <c r="B275" t="s">
         <v>332</v>
       </c>
-      <c r="C275">
-        <v>0</v>
-      </c>
       <c r="D275">
         <v>29</v>
       </c>
@@ -5266,12 +4474,6 @@
       <c r="B276" t="s">
         <v>338</v>
       </c>
-      <c r="C276">
-        <v>0</v>
-      </c>
-      <c r="D276">
-        <v>0</v>
-      </c>
     </row>
     <row r="277" spans="1:4">
       <c r="A277" t="s">
@@ -5280,12 +4482,6 @@
       <c r="B277" t="s">
         <v>328</v>
       </c>
-      <c r="C277">
-        <v>0</v>
-      </c>
-      <c r="D277">
-        <v>0</v>
-      </c>
     </row>
     <row r="278" spans="1:4">
       <c r="A278" t="s">
@@ -5294,9 +4490,6 @@
       <c r="B278" t="s">
         <v>328</v>
       </c>
-      <c r="C278">
-        <v>0</v>
-      </c>
       <c r="D278">
         <v>1</v>
       </c>
@@ -5322,9 +4515,6 @@
       <c r="B280" t="s">
         <v>329</v>
       </c>
-      <c r="C280">
-        <v>0</v>
-      </c>
       <c r="D280">
         <v>5</v>
       </c>
@@ -5336,9 +4526,6 @@
       <c r="B281" t="s">
         <v>333</v>
       </c>
-      <c r="C281">
-        <v>0</v>
-      </c>
       <c r="D281">
         <v>1</v>
       </c>
@@ -5350,12 +4537,6 @@
       <c r="B282" t="s">
         <v>333</v>
       </c>
-      <c r="C282">
-        <v>0</v>
-      </c>
-      <c r="D282">
-        <v>0</v>
-      </c>
     </row>
     <row r="283" spans="1:4">
       <c r="A283" t="s">
@@ -5364,12 +4545,6 @@
       <c r="B283" t="s">
         <v>328</v>
       </c>
-      <c r="C283">
-        <v>0</v>
-      </c>
-      <c r="D283">
-        <v>0</v>
-      </c>
     </row>
     <row r="284" spans="1:4">
       <c r="A284" t="s">
@@ -5392,9 +4567,6 @@
       <c r="B285" t="s">
         <v>329</v>
       </c>
-      <c r="C285">
-        <v>0</v>
-      </c>
       <c r="D285">
         <v>7</v>
       </c>
@@ -5406,9 +4578,6 @@
       <c r="B286" t="s">
         <v>323</v>
       </c>
-      <c r="C286">
-        <v>0</v>
-      </c>
       <c r="D286">
         <v>15</v>
       </c>
@@ -5420,9 +4589,6 @@
       <c r="B287" t="s">
         <v>328</v>
       </c>
-      <c r="C287">
-        <v>0</v>
-      </c>
       <c r="D287">
         <v>3</v>
       </c>
@@ -5434,9 +4600,6 @@
       <c r="B288" t="s">
         <v>339</v>
       </c>
-      <c r="C288">
-        <v>0</v>
-      </c>
       <c r="D288">
         <v>47</v>
       </c>
@@ -5448,12 +4611,6 @@
       <c r="B289" t="s">
         <v>339</v>
       </c>
-      <c r="C289">
-        <v>0</v>
-      </c>
-      <c r="D289">
-        <v>0</v>
-      </c>
     </row>
     <row r="290" spans="1:4">
       <c r="A290" t="s">
@@ -5462,9 +4619,6 @@
       <c r="B290" t="s">
         <v>327</v>
       </c>
-      <c r="C290">
-        <v>0</v>
-      </c>
       <c r="D290">
         <v>13</v>
       </c>
@@ -5476,9 +4630,6 @@
       <c r="B291" t="s">
         <v>339</v>
       </c>
-      <c r="C291">
-        <v>0</v>
-      </c>
       <c r="D291">
         <v>23</v>
       </c>
@@ -5490,9 +4641,6 @@
       <c r="B292" t="s">
         <v>331</v>
       </c>
-      <c r="C292">
-        <v>0</v>
-      </c>
       <c r="D292">
         <v>19</v>
       </c>
@@ -5505,7 +4653,7 @@
         <v>338</v>
       </c>
       <c r="C293">
-        <v>0</v>
+        <v>234</v>
       </c>
       <c r="D293">
         <v>33</v>
@@ -5519,7 +4667,7 @@
         <v>322</v>
       </c>
       <c r="C294">
-        <v>76</v>
+        <v>146</v>
       </c>
       <c r="D294">
         <v>81</v>
@@ -5532,12 +4680,6 @@
       <c r="B295" t="s">
         <v>328</v>
       </c>
-      <c r="C295">
-        <v>0</v>
-      </c>
-      <c r="D295">
-        <v>0</v>
-      </c>
     </row>
     <row r="296" spans="1:4">
       <c r="A296" t="s">
@@ -5546,9 +4688,6 @@
       <c r="B296" t="s">
         <v>324</v>
       </c>
-      <c r="C296">
-        <v>0</v>
-      </c>
       <c r="D296">
         <v>34</v>
       </c>
@@ -5560,9 +4699,6 @@
       <c r="B297" t="s">
         <v>328</v>
       </c>
-      <c r="C297">
-        <v>0</v>
-      </c>
       <c r="D297">
         <v>3</v>
       </c>
@@ -5574,12 +4710,6 @@
       <c r="B298" t="s">
         <v>337</v>
       </c>
-      <c r="C298">
-        <v>0</v>
-      </c>
-      <c r="D298">
-        <v>0</v>
-      </c>
     </row>
     <row r="299" spans="1:4">
       <c r="A299" t="s">
@@ -5588,9 +4718,6 @@
       <c r="B299" t="s">
         <v>329</v>
       </c>
-      <c r="C299">
-        <v>0</v>
-      </c>
       <c r="D299">
         <v>9</v>
       </c>
@@ -5602,9 +4729,6 @@
       <c r="B300" t="s">
         <v>333</v>
       </c>
-      <c r="C300">
-        <v>0</v>
-      </c>
       <c r="D300">
         <v>11</v>
       </c>
@@ -5616,9 +4740,6 @@
       <c r="B301" t="s">
         <v>323</v>
       </c>
-      <c r="C301">
-        <v>0</v>
-      </c>
       <c r="D301">
         <v>7</v>
       </c>
@@ -5630,9 +4751,6 @@
       <c r="B302" t="s">
         <v>326</v>
       </c>
-      <c r="C302">
-        <v>0</v>
-      </c>
       <c r="D302">
         <v>2</v>
       </c>
@@ -5644,9 +4762,6 @@
       <c r="B303" t="s">
         <v>323</v>
       </c>
-      <c r="C303">
-        <v>0</v>
-      </c>
       <c r="D303">
         <v>3</v>
       </c>
@@ -5658,9 +4773,6 @@
       <c r="B304" t="s">
         <v>324</v>
       </c>
-      <c r="C304">
-        <v>0</v>
-      </c>
       <c r="D304">
         <v>2</v>
       </c>
@@ -5672,9 +4784,6 @@
       <c r="B305" t="s">
         <v>324</v>
       </c>
-      <c r="C305">
-        <v>0</v>
-      </c>
       <c r="D305">
         <v>34</v>
       </c>
@@ -5686,9 +4795,6 @@
       <c r="B306" t="s">
         <v>328</v>
       </c>
-      <c r="C306">
-        <v>0</v>
-      </c>
       <c r="D306">
         <v>3</v>
       </c>
@@ -5701,7 +4807,7 @@
         <v>327</v>
       </c>
       <c r="C307">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="D307">
         <v>87</v>
@@ -5714,9 +4820,6 @@
       <c r="B308" t="s">
         <v>325</v>
       </c>
-      <c r="C308">
-        <v>0</v>
-      </c>
       <c r="D308">
         <v>42</v>
       </c>
@@ -5728,9 +4831,6 @@
       <c r="B309" t="s">
         <v>323</v>
       </c>
-      <c r="C309">
-        <v>0</v>
-      </c>
       <c r="D309">
         <v>16</v>
       </c>
@@ -5742,9 +4842,6 @@
       <c r="B310" t="s">
         <v>332</v>
       </c>
-      <c r="C310">
-        <v>0</v>
-      </c>
       <c r="D310">
         <v>2</v>
       </c>
@@ -5756,12 +4853,6 @@
       <c r="B311" t="s">
         <v>332</v>
       </c>
-      <c r="C311">
-        <v>0</v>
-      </c>
-      <c r="D311">
-        <v>0</v>
-      </c>
     </row>
     <row r="312" spans="1:4">
       <c r="A312" t="s">
@@ -5770,9 +4861,6 @@
       <c r="B312" t="s">
         <v>337</v>
       </c>
-      <c r="C312">
-        <v>0</v>
-      </c>
       <c r="D312">
         <v>18</v>
       </c>
@@ -5784,9 +4872,6 @@
       <c r="B313" t="s">
         <v>324</v>
       </c>
-      <c r="C313">
-        <v>0</v>
-      </c>
       <c r="D313">
         <v>11</v>
       </c>
@@ -5798,9 +4883,6 @@
       <c r="B314" t="s">
         <v>324</v>
       </c>
-      <c r="C314">
-        <v>0</v>
-      </c>
       <c r="D314">
         <v>20</v>
       </c>
@@ -5813,7 +4895,7 @@
         <v>323</v>
       </c>
       <c r="C315">
-        <v>0</v>
+        <v>378</v>
       </c>
       <c r="D315">
         <v>72</v>
@@ -5826,9 +4908,6 @@
       <c r="B316" t="s">
         <v>324</v>
       </c>
-      <c r="C316">
-        <v>0</v>
-      </c>
       <c r="D316">
         <v>1</v>
       </c>
@@ -5840,12 +4919,6 @@
       <c r="B317" t="s">
         <v>328</v>
       </c>
-      <c r="C317">
-        <v>0</v>
-      </c>
-      <c r="D317">
-        <v>0</v>
-      </c>
     </row>
     <row r="318" spans="1:4">
       <c r="A318" t="s">
@@ -5854,9 +4927,6 @@
       <c r="B318" t="s">
         <v>343</v>
       </c>
-      <c r="C318">
-        <v>0</v>
-      </c>
       <c r="D318">
         <v>31</v>
       </c>
@@ -5868,9 +4938,6 @@
       <c r="B319" t="s">
         <v>323</v>
       </c>
-      <c r="C319">
-        <v>0</v>
-      </c>
       <c r="D319">
         <v>52</v>
       </c>
@@ -5882,12 +4949,6 @@
       <c r="B320" t="s">
         <v>324</v>
       </c>
-      <c r="C320">
-        <v>0</v>
-      </c>
-      <c r="D320">
-        <v>0</v>
-      </c>
     </row>
     <row r="321" spans="1:4">
       <c r="A321" t="s">
@@ -5896,12 +4957,6 @@
       <c r="B321" t="s">
         <v>324</v>
       </c>
-      <c r="C321">
-        <v>0</v>
-      </c>
-      <c r="D321">
-        <v>0</v>
-      </c>
     </row>
     <row r="322" spans="1:4">
       <c r="A322" t="s">
@@ -5910,9 +4965,6 @@
       <c r="B322" t="s">
         <v>326</v>
       </c>
-      <c r="C322">
-        <v>0</v>
-      </c>
       <c r="D322">
         <v>76</v>
       </c>
@@ -5923,9 +4975,6 @@
       </c>
       <c r="B323" t="s">
         <v>328</v>
-      </c>
-      <c r="C323">
-        <v>0</v>
       </c>
       <c r="D323">
         <v>32</v>

--- a/resources/count_sql.xlsx
+++ b/resources/count_sql.xlsx
@@ -1,20 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27510"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/camilapaiva/Documents/GitHub/db-mining/resources/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$318</definedName>
+  </definedNames>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="341">
   <si>
     <t>Projects</t>
   </si>
@@ -346,9 +362,6 @@
     <t>find-sec-bugs</t>
   </si>
   <si>
-    <t>search-guard</t>
-  </si>
-  <si>
     <t>flowable-engine</t>
   </si>
   <si>
@@ -508,9 +521,6 @@
     <t>DependencyCheck</t>
   </si>
   <si>
-    <t>smali</t>
-  </si>
-  <si>
     <t>intellij-community</t>
   </si>
   <si>
@@ -713,9 +723,6 @@
   </si>
   <si>
     <t>OsmAnd</t>
-  </si>
-  <si>
-    <t>Osmand</t>
   </si>
   <si>
     <t>osmdroid</t>
@@ -1051,8 +1058,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1115,11 +1122,16 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1161,12 +1173,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -1193,14 +1205,15 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -1227,6 +1240,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1402,14 +1416,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D323"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D318"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="27.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1423,12 +1443,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C2">
         <v>36</v>
@@ -1437,12 +1457,12 @@
         <v>248</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C3">
         <v>47</v>
@@ -1451,12 +1471,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C4">
         <v>5</v>
@@ -1465,12 +1485,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C5">
         <v>6</v>
@@ -1479,12 +1499,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C6">
         <v>18</v>
@@ -1493,111 +1513,111 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D7">
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D9">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D10">
         <v>101</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D11">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D12">
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D13">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D14">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D15">
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C16">
         <v>2</v>
@@ -1606,56 +1626,56 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D17">
         <v>177</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D18">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D19">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D20">
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C21">
         <v>6</v>
@@ -1664,122 +1684,122 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D22">
         <v>97</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D23">
         <v>88</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D24">
         <v>264</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D25">
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D26">
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D27">
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D28">
         <v>238</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D29">
         <v>202</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D30">
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D31">
         <v>68</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C32">
         <v>24</v>
@@ -1788,45 +1808,45 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D33">
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D34">
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D35">
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C36">
         <v>14</v>
@@ -1835,67 +1855,67 @@
         <v>173</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>39</v>
       </c>
       <c r="B37" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D37">
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D38">
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D39">
         <v>117</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>42</v>
       </c>
       <c r="B40" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D40">
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>43</v>
       </c>
       <c r="B41" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D41">
         <v>57</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>44</v>
       </c>
       <c r="B42" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C42">
         <v>291</v>
@@ -1904,23 +1924,23 @@
         <v>230</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>45</v>
       </c>
       <c r="B43" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D43">
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>46</v>
       </c>
       <c r="B44" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C44">
         <v>131</v>
@@ -1929,20 +1949,20 @@
         <v>608</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>47</v>
       </c>
       <c r="B45" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>48</v>
       </c>
       <c r="B46" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C46">
         <v>196</v>
@@ -1951,34 +1971,34 @@
         <v>63</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>49</v>
       </c>
       <c r="B47" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D47">
         <v>73</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>50</v>
       </c>
       <c r="B48" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D48">
         <v>22</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>51</v>
       </c>
       <c r="B49" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C49">
         <v>12</v>
@@ -1987,31 +2007,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>52</v>
       </c>
       <c r="B50" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>53</v>
       </c>
       <c r="B51" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D51">
         <v>39</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>54</v>
       </c>
       <c r="B52" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C52">
         <v>3</v>
@@ -2020,237 +2040,237 @@
         <v>64</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>55</v>
       </c>
       <c r="B53" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D53">
         <v>36</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>56</v>
       </c>
       <c r="B54" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D54">
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>57</v>
       </c>
       <c r="B55" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D55">
         <v>22</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>58</v>
       </c>
       <c r="B56" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D56">
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>59</v>
       </c>
       <c r="B57" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D57">
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>60</v>
       </c>
       <c r="B58" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D58">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>61</v>
       </c>
       <c r="B59" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>62</v>
       </c>
       <c r="B60" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D60">
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>63</v>
       </c>
       <c r="B61" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D61">
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>64</v>
       </c>
       <c r="B62" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D62">
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>65</v>
       </c>
       <c r="B63" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>66</v>
       </c>
       <c r="B64" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D64">
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>67</v>
       </c>
       <c r="B65" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D65">
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>68</v>
       </c>
       <c r="B66" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D66">
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>69</v>
       </c>
       <c r="B67" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D67">
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>70</v>
       </c>
       <c r="B68" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D68">
         <v>18</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>71</v>
       </c>
       <c r="B69" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D69">
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>72</v>
       </c>
       <c r="B70" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D70">
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>73</v>
       </c>
       <c r="B71" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D71">
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>74</v>
       </c>
       <c r="B72" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D72">
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>75</v>
       </c>
       <c r="B73" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C73">
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>76</v>
       </c>
       <c r="B74" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C74">
         <v>94</v>
@@ -2259,97 +2279,97 @@
         <v>118</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>77</v>
       </c>
       <c r="B75" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>78</v>
       </c>
       <c r="B76" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D76">
         <v>9</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>79</v>
       </c>
       <c r="B77" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D77">
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>80</v>
       </c>
       <c r="B78" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D78">
         <v>14</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>81</v>
       </c>
       <c r="B79" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D79">
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>82</v>
       </c>
       <c r="B80" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D80">
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>83</v>
       </c>
       <c r="B81" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D81">
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>84</v>
       </c>
       <c r="B82" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D82">
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>85</v>
       </c>
       <c r="B83" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C83">
         <v>29</v>
@@ -2358,12 +2378,12 @@
         <v>73</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>86</v>
       </c>
       <c r="B84" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C84">
         <v>4</v>
@@ -2372,23 +2392,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>87</v>
       </c>
       <c r="B85" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D85">
         <v>178</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>88</v>
       </c>
       <c r="B86" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C86">
         <v>5</v>
@@ -2397,56 +2417,56 @@
         <v>199</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>89</v>
       </c>
       <c r="B87" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D87">
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>90</v>
       </c>
       <c r="B88" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D88">
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>91</v>
       </c>
       <c r="B89" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D89">
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>92</v>
       </c>
       <c r="B90" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D90">
         <v>27</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>93</v>
       </c>
       <c r="B91" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C91">
         <v>1022</v>
@@ -2455,165 +2475,165 @@
         <v>306</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>94</v>
       </c>
       <c r="B92" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D92">
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>95</v>
       </c>
       <c r="B93" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D93">
         <v>16</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>96</v>
       </c>
       <c r="B94" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D94">
         <v>439</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>97</v>
       </c>
       <c r="B95" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>98</v>
       </c>
       <c r="B96" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D96">
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>99</v>
       </c>
       <c r="B97" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D97">
         <v>29</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>100</v>
       </c>
       <c r="B98" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D98">
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>101</v>
       </c>
       <c r="B99" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D99">
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>102</v>
       </c>
       <c r="B100" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D100">
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>103</v>
       </c>
       <c r="B101" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D101">
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>104</v>
       </c>
       <c r="B102" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>105</v>
       </c>
       <c r="B103" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D103">
         <v>20</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>106</v>
       </c>
       <c r="B104" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>107</v>
       </c>
       <c r="B105" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>108</v>
       </c>
       <c r="B106" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D106">
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>109</v>
       </c>
       <c r="B107" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C107">
         <v>13</v>
@@ -2622,315 +2642,318 @@
         <v>22</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>110</v>
       </c>
       <c r="B108" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4">
+        <v>325</v>
+      </c>
+      <c r="C108">
+        <v>83</v>
+      </c>
+      <c r="D108">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>111</v>
       </c>
       <c r="B109" t="s">
-        <v>328</v>
-      </c>
-      <c r="C109">
-        <v>83</v>
+        <v>325</v>
       </c>
       <c r="D109">
-        <v>1869</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>112</v>
       </c>
       <c r="B110" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="D110">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>113</v>
       </c>
       <c r="B111" t="s">
-        <v>323</v>
-      </c>
-      <c r="D111">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>114</v>
       </c>
       <c r="B112" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="113" spans="1:4">
+      <c r="D112">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>115</v>
       </c>
       <c r="B113" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="D113">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>116</v>
       </c>
       <c r="B114" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D114">
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>117</v>
       </c>
       <c r="B115" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="D115">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>118</v>
       </c>
       <c r="B116" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D116">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>119</v>
       </c>
       <c r="B117" t="s">
-        <v>324</v>
+        <v>328</v>
+      </c>
+      <c r="C117">
+        <v>8</v>
       </c>
       <c r="D117">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>120</v>
       </c>
       <c r="B118" t="s">
-        <v>331</v>
-      </c>
-      <c r="C118">
-        <v>8</v>
+        <v>321</v>
       </c>
       <c r="D118">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>121</v>
       </c>
       <c r="B119" t="s">
-        <v>324</v>
-      </c>
-      <c r="D119">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>122</v>
       </c>
       <c r="B120" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4">
+        <v>325</v>
+      </c>
+      <c r="D120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>123</v>
       </c>
       <c r="B121" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D121">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>124</v>
       </c>
       <c r="B122" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="D122">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>125</v>
       </c>
       <c r="B123" t="s">
-        <v>337</v>
+        <v>320</v>
       </c>
       <c r="D123">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>126</v>
       </c>
       <c r="B124" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="D124">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>127</v>
       </c>
       <c r="B125" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D125">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>128</v>
       </c>
       <c r="B126" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D126">
         <v>18</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>129</v>
       </c>
       <c r="B127" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D127">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>130</v>
       </c>
       <c r="B128" t="s">
-        <v>328</v>
+        <v>330</v>
+      </c>
+      <c r="C128">
+        <v>157</v>
       </c>
       <c r="D128">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>131</v>
       </c>
       <c r="B129" t="s">
-        <v>333</v>
-      </c>
-      <c r="C129">
-        <v>157</v>
+        <v>325</v>
       </c>
       <c r="D129">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>132</v>
       </c>
       <c r="B130" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="D130">
         <v>4</v>
       </c>
     </row>
-    <row r="131" spans="1:4">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>133</v>
       </c>
       <c r="B131" t="s">
-        <v>338</v>
+        <v>321</v>
       </c>
       <c r="D131">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>134</v>
       </c>
       <c r="B132" t="s">
-        <v>324</v>
-      </c>
-      <c r="D132">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>135</v>
       </c>
       <c r="B133" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4">
+        <v>330</v>
+      </c>
+      <c r="D133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>136</v>
       </c>
       <c r="B134" t="s">
-        <v>333</v>
+        <v>320</v>
+      </c>
+      <c r="C134">
+        <v>7</v>
       </c>
       <c r="D134">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>137</v>
       </c>
       <c r="B135" t="s">
-        <v>323</v>
-      </c>
-      <c r="C135">
-        <v>7</v>
+        <v>321</v>
       </c>
       <c r="D135">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>138</v>
       </c>
@@ -2938,443 +2961,443 @@
         <v>324</v>
       </c>
       <c r="D136">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>139</v>
       </c>
       <c r="B137" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D137">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>140</v>
       </c>
       <c r="B138" t="s">
-        <v>327</v>
-      </c>
-      <c r="D138">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>141</v>
       </c>
       <c r="B139" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>142</v>
       </c>
       <c r="B140" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4">
+        <v>325</v>
+      </c>
+      <c r="D140">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>143</v>
       </c>
       <c r="B141" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="D141">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>144</v>
       </c>
       <c r="B142" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="D142">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>145</v>
       </c>
       <c r="B143" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="D143">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>146</v>
       </c>
       <c r="B144" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="D144">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>147</v>
       </c>
       <c r="B145" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D145">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>148</v>
       </c>
       <c r="B146" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D146">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>149</v>
       </c>
       <c r="B147" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="D147">
         <v>9</v>
       </c>
     </row>
-    <row r="148" spans="1:4">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>150</v>
       </c>
       <c r="B148" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="D148">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>151</v>
       </c>
       <c r="B149" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="D149">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>152</v>
       </c>
       <c r="B150" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
       <c r="D150">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>153</v>
       </c>
       <c r="B151" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D151">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>154</v>
       </c>
       <c r="B152" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
       <c r="D152">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>155</v>
       </c>
       <c r="B153" t="s">
-        <v>328</v>
-      </c>
-      <c r="D153">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>156</v>
       </c>
       <c r="B154" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4">
+        <v>326</v>
+      </c>
+      <c r="C154">
+        <v>6</v>
+      </c>
+      <c r="D154">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>157</v>
       </c>
       <c r="B155" t="s">
-        <v>329</v>
-      </c>
-      <c r="C155">
-        <v>6</v>
+        <v>336</v>
       </c>
       <c r="D155">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>158</v>
       </c>
       <c r="B156" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="D156">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>159</v>
       </c>
       <c r="B157" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="D157">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>160</v>
       </c>
       <c r="B158" t="s">
-        <v>328</v>
-      </c>
-      <c r="D158">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>161</v>
       </c>
       <c r="B159" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4">
+        <v>325</v>
+      </c>
+      <c r="D159">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>162</v>
       </c>
       <c r="B160" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D160">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>163</v>
       </c>
       <c r="B161" t="s">
-        <v>332</v>
+        <v>325</v>
+      </c>
+      <c r="C161">
+        <v>2</v>
       </c>
       <c r="D161">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>164</v>
       </c>
       <c r="B162" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4">
+        <v>325</v>
+      </c>
+      <c r="D162">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>165</v>
       </c>
       <c r="B163" t="s">
-        <v>328</v>
-      </c>
-      <c r="C163">
-        <v>2</v>
+        <v>325</v>
       </c>
       <c r="D163">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>166</v>
       </c>
       <c r="B164" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="D164">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>167</v>
       </c>
       <c r="B165" t="s">
         <v>328</v>
       </c>
-      <c r="D165">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4">
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>168</v>
       </c>
       <c r="B166" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="D166">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>169</v>
       </c>
       <c r="B167" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4">
+        <v>336</v>
+      </c>
+      <c r="D167">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>170</v>
       </c>
       <c r="B168" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="D168">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>171</v>
       </c>
       <c r="B169" t="s">
-        <v>339</v>
-      </c>
-      <c r="D169">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>172</v>
       </c>
       <c r="B170" t="s">
-        <v>337</v>
-      </c>
-      <c r="D170">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>173</v>
       </c>
       <c r="B171" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4">
+        <v>325</v>
+      </c>
+      <c r="D171">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>174</v>
       </c>
       <c r="B172" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4">
+        <v>324</v>
+      </c>
+      <c r="D172">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>175</v>
       </c>
       <c r="B173" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D173">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>176</v>
       </c>
       <c r="B174" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D174">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>177</v>
       </c>
       <c r="B175" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="D175">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>178</v>
       </c>
       <c r="B176" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="D176">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>179</v>
       </c>
       <c r="B177" t="s">
-        <v>323</v>
-      </c>
-      <c r="D177">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>180</v>
       </c>
@@ -3382,1601 +3405,1549 @@
         <v>324</v>
       </c>
       <c r="D178">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>181</v>
       </c>
       <c r="B179" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4">
+        <v>323</v>
+      </c>
+      <c r="C179">
+        <v>116</v>
+      </c>
+      <c r="D179">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>182</v>
       </c>
       <c r="B180" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="D180">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>183</v>
       </c>
       <c r="B181" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
       <c r="C181">
-        <v>116</v>
+        <v>17</v>
       </c>
       <c r="D181">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>184</v>
       </c>
       <c r="B182" t="s">
-        <v>340</v>
+        <v>338</v>
+      </c>
+      <c r="C182">
+        <v>37</v>
       </c>
       <c r="D182">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>185</v>
       </c>
       <c r="B183" t="s">
-        <v>341</v>
+        <v>319</v>
       </c>
       <c r="C183">
-        <v>17</v>
+        <v>270</v>
       </c>
       <c r="D183">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>186</v>
       </c>
       <c r="B184" t="s">
-        <v>341</v>
-      </c>
-      <c r="C184">
-        <v>37</v>
+        <v>339</v>
       </c>
       <c r="D184">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>187</v>
       </c>
       <c r="B185" t="s">
-        <v>322</v>
-      </c>
-      <c r="C185">
-        <v>270</v>
+        <v>325</v>
       </c>
       <c r="D185">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>188</v>
       </c>
       <c r="B186" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
       <c r="D186">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>189</v>
       </c>
       <c r="B187" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="D187">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>190</v>
       </c>
       <c r="B188" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D188">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>191</v>
       </c>
       <c r="B189" t="s">
-        <v>324</v>
+        <v>320</v>
+      </c>
+      <c r="C189">
+        <v>1</v>
       </c>
       <c r="D189">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>192</v>
       </c>
       <c r="B190" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D190">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>193</v>
       </c>
       <c r="B191" t="s">
-        <v>323</v>
-      </c>
-      <c r="C191">
-        <v>1</v>
+        <v>325</v>
       </c>
       <c r="D191">
-        <v>1187</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>194</v>
       </c>
       <c r="B192" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="D192">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>195</v>
       </c>
       <c r="B193" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D193">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>196</v>
       </c>
       <c r="B194" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D194">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>197</v>
       </c>
       <c r="B195" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="D195">
         <v>3</v>
       </c>
     </row>
-    <row r="196" spans="1:4">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>198</v>
       </c>
       <c r="B196" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="D196">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>199</v>
       </c>
       <c r="B197" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D197">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>200</v>
       </c>
       <c r="B198" t="s">
-        <v>324</v>
-      </c>
-      <c r="D198">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>201</v>
       </c>
       <c r="B199" t="s">
-        <v>328</v>
+        <v>326</v>
+      </c>
+      <c r="C199">
+        <v>5</v>
       </c>
       <c r="D199">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>202</v>
       </c>
       <c r="B200" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4">
+        <v>334</v>
+      </c>
+      <c r="D200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>203</v>
       </c>
       <c r="B201" t="s">
-        <v>329</v>
-      </c>
-      <c r="C201">
-        <v>5</v>
+        <v>334</v>
       </c>
       <c r="D201">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>204</v>
       </c>
       <c r="B202" t="s">
-        <v>337</v>
+        <v>325</v>
+      </c>
+      <c r="C202">
+        <v>50</v>
       </c>
       <c r="D202">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>205</v>
       </c>
       <c r="B203" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="D203">
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:4">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>206</v>
       </c>
       <c r="B204" t="s">
-        <v>328</v>
-      </c>
-      <c r="C204">
-        <v>50</v>
+        <v>334</v>
       </c>
       <c r="D204">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>155</v>
+        <v>207</v>
       </c>
       <c r="B205" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="D205">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B206" t="s">
-        <v>331</v>
-      </c>
-      <c r="D206">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>209</v>
+      </c>
+      <c r="B207" t="s">
+        <v>326</v>
+      </c>
+      <c r="D207">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>210</v>
+      </c>
+      <c r="B208" t="s">
+        <v>325</v>
+      </c>
+      <c r="C208">
+        <v>13</v>
+      </c>
+      <c r="D208">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>211</v>
+      </c>
+      <c r="B209" t="s">
+        <v>321</v>
+      </c>
+      <c r="D209">
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:4">
-      <c r="A207" t="s">
-        <v>208</v>
-      </c>
-      <c r="B207" t="s">
-        <v>337</v>
-      </c>
-      <c r="D207">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4">
-      <c r="A208" t="s">
-        <v>209</v>
-      </c>
-      <c r="B208" t="s">
-        <v>324</v>
-      </c>
-      <c r="D208">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4">
-      <c r="A209" t="s">
-        <v>210</v>
-      </c>
-      <c r="B209" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B210" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="D210">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B211" t="s">
-        <v>328</v>
-      </c>
-      <c r="C211">
-        <v>13</v>
+        <v>320</v>
       </c>
       <c r="D211">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B212" t="s">
-        <v>324</v>
+        <v>320</v>
+      </c>
+      <c r="C212">
+        <v>29</v>
       </c>
       <c r="D212">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>214</v>
+        <v>84</v>
       </c>
       <c r="B213" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D213">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>215</v>
       </c>
       <c r="B214" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D214">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>216</v>
       </c>
       <c r="B215" t="s">
-        <v>323</v>
-      </c>
-      <c r="C215">
-        <v>29</v>
+        <v>328</v>
       </c>
       <c r="D215">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>84</v>
+        <v>217</v>
       </c>
       <c r="B216" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D216">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B217" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="D217">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B218" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="D218">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B219" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D219">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B220" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D220">
         <v>2</v>
       </c>
     </row>
-    <row r="221" spans="1:4">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B221" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D221">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B222" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="D222">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B223" t="s">
-        <v>323</v>
+        <v>326</v>
+      </c>
+      <c r="C223">
+        <v>32</v>
       </c>
       <c r="D223">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B224" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D224">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B225" t="s">
+        <v>329</v>
+      </c>
+      <c r="D225">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
+        <v>227</v>
+      </c>
+      <c r="B226" t="s">
+        <v>337</v>
+      </c>
+      <c r="D226">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
+        <v>228</v>
+      </c>
+      <c r="B227" t="s">
+        <v>322</v>
+      </c>
+      <c r="D227">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
+        <v>229</v>
+      </c>
+      <c r="B228" t="s">
         <v>331</v>
       </c>
-      <c r="D225">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4">
-      <c r="A226" t="s">
-        <v>226</v>
-      </c>
-      <c r="B226" t="s">
-        <v>329</v>
-      </c>
-      <c r="C226">
-        <v>32</v>
-      </c>
-      <c r="D226">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4">
-      <c r="A227" t="s">
-        <v>227</v>
-      </c>
-      <c r="B227" t="s">
-        <v>328</v>
-      </c>
-      <c r="D227">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4">
-      <c r="A228" t="s">
-        <v>228</v>
-      </c>
-      <c r="B228" t="s">
-        <v>332</v>
-      </c>
-      <c r="D228">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4">
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B229" t="s">
-        <v>340</v>
+        <v>321</v>
       </c>
       <c r="D229">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B230" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D230">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>231</v>
+        <v>84</v>
       </c>
       <c r="B231" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4">
+        <v>321</v>
+      </c>
+      <c r="D231">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>232</v>
       </c>
       <c r="B232" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D232">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>233</v>
       </c>
       <c r="B233" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="D233">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>234</v>
       </c>
       <c r="B234" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D234">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>84</v>
+        <v>235</v>
       </c>
       <c r="B235" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D235">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B236" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="D236">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B237" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="D237">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B238" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="D238">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B239" t="s">
         <v>329</v>
       </c>
+      <c r="C239">
+        <v>1</v>
+      </c>
       <c r="D239">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A240" t="s">
+        <v>240</v>
+      </c>
+      <c r="B240" t="s">
+        <v>325</v>
+      </c>
+      <c r="D240">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A241" t="s">
+        <v>241</v>
+      </c>
+      <c r="B241" t="s">
+        <v>326</v>
+      </c>
+      <c r="D241">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A242" t="s">
+        <v>242</v>
+      </c>
+      <c r="B242" t="s">
+        <v>325</v>
+      </c>
+      <c r="D242">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A243" t="s">
+        <v>243</v>
+      </c>
+      <c r="B243" t="s">
+        <v>320</v>
+      </c>
+      <c r="D243">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A244" t="s">
+        <v>244</v>
+      </c>
+      <c r="B244" t="s">
+        <v>325</v>
+      </c>
+      <c r="D244">
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:4">
-      <c r="A240" t="s">
-        <v>239</v>
-      </c>
-      <c r="B240" t="s">
-        <v>332</v>
-      </c>
-      <c r="D240">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4">
-      <c r="A241" t="s">
-        <v>240</v>
-      </c>
-      <c r="B241" t="s">
-        <v>328</v>
-      </c>
-      <c r="D241">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4">
-      <c r="A242" t="s">
-        <v>241</v>
-      </c>
-      <c r="B242" t="s">
-        <v>323</v>
-      </c>
-      <c r="D242">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4">
-      <c r="A243" t="s">
-        <v>242</v>
-      </c>
-      <c r="B243" t="s">
-        <v>332</v>
-      </c>
-      <c r="C243">
-        <v>1</v>
-      </c>
-      <c r="D243">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4">
-      <c r="A244" t="s">
-        <v>243</v>
-      </c>
-      <c r="B244" t="s">
-        <v>328</v>
-      </c>
-      <c r="D244">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B245" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D245">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B246" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="D246">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B247" t="s">
-        <v>323</v>
-      </c>
-      <c r="D247">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B248" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D248">
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:4">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B249" t="s">
+        <v>330</v>
+      </c>
+      <c r="D249">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A250" t="s">
+        <v>250</v>
+      </c>
+      <c r="B250" t="s">
+        <v>330</v>
+      </c>
+      <c r="D250">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A251" t="s">
+        <v>251</v>
+      </c>
+      <c r="B251" t="s">
+        <v>325</v>
+      </c>
+      <c r="C251">
+        <v>11</v>
+      </c>
+      <c r="D251">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A252" t="s">
+        <v>252</v>
+      </c>
+      <c r="B252" t="s">
         <v>328</v>
       </c>
-      <c r="D249">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4">
-      <c r="A250" t="s">
-        <v>249</v>
-      </c>
-      <c r="B250" t="s">
-        <v>324</v>
-      </c>
-      <c r="D250">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4">
-      <c r="A251" t="s">
-        <v>250</v>
-      </c>
-      <c r="B251" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4">
-      <c r="A252" t="s">
-        <v>251</v>
-      </c>
-      <c r="B252" t="s">
-        <v>333</v>
-      </c>
       <c r="D252">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B253" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="D253">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="254" spans="1:4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B254" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="D254">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B255" t="s">
-        <v>328</v>
-      </c>
-      <c r="C255">
-        <v>11</v>
+        <v>325</v>
       </c>
       <c r="D255">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B256" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="D256">
         <v>12</v>
       </c>
     </row>
-    <row r="257" spans="1:4">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B257" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D257">
         <v>2</v>
       </c>
     </row>
-    <row r="258" spans="1:4">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B258" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D258">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B259" t="s">
         <v>328</v>
       </c>
       <c r="D259">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B260" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="D260">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="261" spans="1:4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B261" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="D261">
         <v>2</v>
       </c>
     </row>
-    <row r="262" spans="1:4">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B262" t="s">
+        <v>325</v>
+      </c>
+      <c r="D262">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A263" t="s">
+        <v>263</v>
+      </c>
+      <c r="B263" t="s">
+        <v>323</v>
+      </c>
+      <c r="D263">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A264" t="s">
+        <v>264</v>
+      </c>
+      <c r="B264" t="s">
         <v>329</v>
       </c>
-      <c r="D262">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="263" spans="1:4">
-      <c r="A263" t="s">
-        <v>149</v>
-      </c>
-      <c r="B263" t="s">
-        <v>331</v>
-      </c>
-      <c r="D263">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="264" spans="1:4">
-      <c r="A264" t="s">
-        <v>262</v>
-      </c>
-      <c r="B264" t="s">
-        <v>331</v>
-      </c>
       <c r="D264">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="265" spans="1:4">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B265" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D265">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="266" spans="1:4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B266" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D266">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A267" t="s">
+        <v>267</v>
+      </c>
+      <c r="B267" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A268" t="s">
+        <v>268</v>
+      </c>
+      <c r="B268" t="s">
+        <v>334</v>
+      </c>
+      <c r="D268">
         <v>2</v>
       </c>
     </row>
-    <row r="267" spans="1:4">
-      <c r="A267" t="s">
-        <v>265</v>
-      </c>
-      <c r="B267" t="s">
-        <v>328</v>
-      </c>
-      <c r="D267">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A269" t="s">
+        <v>269</v>
+      </c>
+      <c r="B269" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A270" t="s">
+        <v>270</v>
+      </c>
+      <c r="B270" t="s">
+        <v>329</v>
+      </c>
+      <c r="D270">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A271" t="s">
+        <v>271</v>
+      </c>
+      <c r="B271" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A272" t="s">
+        <v>272</v>
+      </c>
+      <c r="B272" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A273" t="s">
+        <v>273</v>
+      </c>
+      <c r="B273" t="s">
+        <v>325</v>
+      </c>
+      <c r="D273">
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:4">
-      <c r="A268" t="s">
-        <v>266</v>
-      </c>
-      <c r="B268" t="s">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A274" t="s">
+        <v>274</v>
+      </c>
+      <c r="B274" t="s">
+        <v>325</v>
+      </c>
+      <c r="C274">
+        <v>4</v>
+      </c>
+      <c r="D274">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A275" t="s">
+        <v>275</v>
+      </c>
+      <c r="B275" t="s">
         <v>326</v>
       </c>
-      <c r="D268">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="269" spans="1:4">
-      <c r="A269" t="s">
-        <v>267</v>
-      </c>
-      <c r="B269" t="s">
-        <v>332</v>
-      </c>
-      <c r="D269">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="270" spans="1:4">
-      <c r="A270" t="s">
-        <v>268</v>
-      </c>
-      <c r="B270" t="s">
-        <v>328</v>
-      </c>
-      <c r="D270">
+      <c r="D275">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A276" t="s">
+        <v>276</v>
+      </c>
+      <c r="B276" t="s">
+        <v>330</v>
+      </c>
+      <c r="D276">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A277" t="s">
+        <v>277</v>
+      </c>
+      <c r="B277" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A278" t="s">
+        <v>278</v>
+      </c>
+      <c r="B278" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A279" t="s">
+        <v>279</v>
+      </c>
+      <c r="B279" t="s">
+        <v>323</v>
+      </c>
+      <c r="C279">
+        <v>42</v>
+      </c>
+      <c r="D279">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A280" t="s">
+        <v>280</v>
+      </c>
+      <c r="B280" t="s">
+        <v>326</v>
+      </c>
+      <c r="D280">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A281" t="s">
+        <v>281</v>
+      </c>
+      <c r="B281" t="s">
+        <v>320</v>
+      </c>
+      <c r="D281">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A282" t="s">
+        <v>282</v>
+      </c>
+      <c r="B282" t="s">
+        <v>325</v>
+      </c>
+      <c r="D282">
         <v>3</v>
       </c>
     </row>
-    <row r="271" spans="1:4">
-      <c r="A271" t="s">
-        <v>269</v>
-      </c>
-      <c r="B271" t="s">
-        <v>328</v>
-      </c>
-      <c r="D271">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="272" spans="1:4">
-      <c r="A272" t="s">
-        <v>270</v>
-      </c>
-      <c r="B272" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="273" spans="1:4">
-      <c r="A273" t="s">
-        <v>271</v>
-      </c>
-      <c r="B273" t="s">
-        <v>337</v>
-      </c>
-      <c r="D273">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="274" spans="1:4">
-      <c r="A274" t="s">
-        <v>272</v>
-      </c>
-      <c r="B274" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="275" spans="1:4">
-      <c r="A275" t="s">
-        <v>273</v>
-      </c>
-      <c r="B275" t="s">
-        <v>332</v>
-      </c>
-      <c r="D275">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="276" spans="1:4">
-      <c r="A276" t="s">
-        <v>274</v>
-      </c>
-      <c r="B276" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="277" spans="1:4">
-      <c r="A277" t="s">
-        <v>275</v>
-      </c>
-      <c r="B277" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="278" spans="1:4">
-      <c r="A278" t="s">
-        <v>276</v>
-      </c>
-      <c r="B278" t="s">
-        <v>328</v>
-      </c>
-      <c r="D278">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="279" spans="1:4">
-      <c r="A279" t="s">
-        <v>277</v>
-      </c>
-      <c r="B279" t="s">
-        <v>328</v>
-      </c>
-      <c r="C279">
-        <v>4</v>
-      </c>
-      <c r="D279">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="280" spans="1:4">
-      <c r="A280" t="s">
-        <v>278</v>
-      </c>
-      <c r="B280" t="s">
-        <v>329</v>
-      </c>
-      <c r="D280">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="281" spans="1:4">
-      <c r="A281" t="s">
-        <v>279</v>
-      </c>
-      <c r="B281" t="s">
-        <v>333</v>
-      </c>
-      <c r="D281">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="282" spans="1:4">
-      <c r="A282" t="s">
-        <v>280</v>
-      </c>
-      <c r="B282" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="283" spans="1:4">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B283" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="284" spans="1:4">
+        <v>336</v>
+      </c>
+      <c r="D283">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B284" t="s">
-        <v>326</v>
-      </c>
-      <c r="C284">
-        <v>42</v>
-      </c>
-      <c r="D284">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="285" spans="1:4">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B285" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="D285">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="286" spans="1:4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B286" t="s">
-        <v>323</v>
+        <v>336</v>
       </c>
       <c r="D286">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="287" spans="1:4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B287" t="s">
         <v>328</v>
       </c>
       <c r="D287">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A288" t="s">
+        <v>288</v>
+      </c>
+      <c r="B288" t="s">
+        <v>335</v>
+      </c>
+      <c r="C288">
+        <v>234</v>
+      </c>
+      <c r="D288">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A289" t="s">
+        <v>289</v>
+      </c>
+      <c r="B289" t="s">
+        <v>319</v>
+      </c>
+      <c r="C289">
+        <v>146</v>
+      </c>
+      <c r="D289">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A290" t="s">
+        <v>290</v>
+      </c>
+      <c r="B290" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A291" t="s">
+        <v>291</v>
+      </c>
+      <c r="B291" t="s">
+        <v>321</v>
+      </c>
+      <c r="D291">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A292" t="s">
+        <v>292</v>
+      </c>
+      <c r="B292" t="s">
+        <v>325</v>
+      </c>
+      <c r="D292">
         <v>3</v>
       </c>
     </row>
-    <row r="288" spans="1:4">
-      <c r="A288" t="s">
-        <v>286</v>
-      </c>
-      <c r="B288" t="s">
-        <v>339</v>
-      </c>
-      <c r="D288">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="289" spans="1:4">
-      <c r="A289" t="s">
-        <v>287</v>
-      </c>
-      <c r="B289" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="290" spans="1:4">
-      <c r="A290" t="s">
-        <v>288</v>
-      </c>
-      <c r="B290" t="s">
-        <v>327</v>
-      </c>
-      <c r="D290">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="291" spans="1:4">
-      <c r="A291" t="s">
-        <v>289</v>
-      </c>
-      <c r="B291" t="s">
-        <v>339</v>
-      </c>
-      <c r="D291">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="292" spans="1:4">
-      <c r="A292" t="s">
-        <v>290</v>
-      </c>
-      <c r="B292" t="s">
-        <v>331</v>
-      </c>
-      <c r="D292">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="293" spans="1:4">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B293" t="s">
-        <v>338</v>
-      </c>
-      <c r="C293">
-        <v>234</v>
-      </c>
-      <c r="D293">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="294" spans="1:4">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B294" t="s">
+        <v>326</v>
+      </c>
+      <c r="D294">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A295" t="s">
+        <v>295</v>
+      </c>
+      <c r="B295" t="s">
+        <v>330</v>
+      </c>
+      <c r="D295">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A296" t="s">
+        <v>296</v>
+      </c>
+      <c r="B296" t="s">
+        <v>320</v>
+      </c>
+      <c r="D296">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A297" t="s">
+        <v>297</v>
+      </c>
+      <c r="B297" t="s">
+        <v>323</v>
+      </c>
+      <c r="D297">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A298" t="s">
+        <v>298</v>
+      </c>
+      <c r="B298" t="s">
+        <v>320</v>
+      </c>
+      <c r="D298">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A299" t="s">
+        <v>299</v>
+      </c>
+      <c r="B299" t="s">
+        <v>321</v>
+      </c>
+      <c r="D299">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A300" t="s">
+        <v>300</v>
+      </c>
+      <c r="B300" t="s">
+        <v>321</v>
+      </c>
+      <c r="D300">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A301" t="s">
+        <v>301</v>
+      </c>
+      <c r="B301" t="s">
+        <v>325</v>
+      </c>
+      <c r="D301">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A302" t="s">
+        <v>302</v>
+      </c>
+      <c r="B302" t="s">
+        <v>324</v>
+      </c>
+      <c r="C302">
+        <v>67</v>
+      </c>
+      <c r="D302">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A303" t="s">
+        <v>303</v>
+      </c>
+      <c r="B303" t="s">
         <v>322</v>
       </c>
-      <c r="C294">
-        <v>146</v>
-      </c>
-      <c r="D294">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="295" spans="1:4">
-      <c r="A295" t="s">
-        <v>293</v>
-      </c>
-      <c r="B295" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="296" spans="1:4">
-      <c r="A296" t="s">
-        <v>294</v>
-      </c>
-      <c r="B296" t="s">
-        <v>324</v>
-      </c>
-      <c r="D296">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="297" spans="1:4">
-      <c r="A297" t="s">
-        <v>295</v>
-      </c>
-      <c r="B297" t="s">
-        <v>328</v>
-      </c>
-      <c r="D297">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="298" spans="1:4">
-      <c r="A298" t="s">
-        <v>296</v>
-      </c>
-      <c r="B298" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="299" spans="1:4">
-      <c r="A299" t="s">
-        <v>297</v>
-      </c>
-      <c r="B299" t="s">
+      <c r="D303">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A304" t="s">
+        <v>304</v>
+      </c>
+      <c r="B304" t="s">
+        <v>320</v>
+      </c>
+      <c r="D304">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A305" t="s">
+        <v>305</v>
+      </c>
+      <c r="B305" t="s">
         <v>329</v>
       </c>
-      <c r="D299">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="300" spans="1:4">
-      <c r="A300" t="s">
-        <v>298</v>
-      </c>
-      <c r="B300" t="s">
-        <v>333</v>
-      </c>
-      <c r="D300">
+      <c r="D305">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A306" t="s">
+        <v>306</v>
+      </c>
+      <c r="B306" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A307" t="s">
+        <v>307</v>
+      </c>
+      <c r="B307" t="s">
+        <v>334</v>
+      </c>
+      <c r="D307">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A308" t="s">
+        <v>308</v>
+      </c>
+      <c r="B308" t="s">
+        <v>321</v>
+      </c>
+      <c r="D308">
         <v>11</v>
       </c>
     </row>
-    <row r="301" spans="1:4">
-      <c r="A301" t="s">
-        <v>299</v>
-      </c>
-      <c r="B301" t="s">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A309" t="s">
+        <v>309</v>
+      </c>
+      <c r="B309" t="s">
+        <v>321</v>
+      </c>
+      <c r="D309">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A310" t="s">
+        <v>310</v>
+      </c>
+      <c r="B310" t="s">
+        <v>320</v>
+      </c>
+      <c r="C310">
+        <v>378</v>
+      </c>
+      <c r="D310">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A311" t="s">
+        <v>311</v>
+      </c>
+      <c r="B311" t="s">
+        <v>321</v>
+      </c>
+      <c r="D311">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A312" t="s">
+        <v>312</v>
+      </c>
+      <c r="B312" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A313" t="s">
+        <v>313</v>
+      </c>
+      <c r="B313" t="s">
+        <v>340</v>
+      </c>
+      <c r="D313">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A314" t="s">
+        <v>314</v>
+      </c>
+      <c r="B314" t="s">
+        <v>320</v>
+      </c>
+      <c r="D314">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A315" t="s">
+        <v>315</v>
+      </c>
+      <c r="B315" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A316" t="s">
+        <v>316</v>
+      </c>
+      <c r="B316" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A317" t="s">
+        <v>317</v>
+      </c>
+      <c r="B317" t="s">
         <v>323</v>
       </c>
-      <c r="D301">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="302" spans="1:4">
-      <c r="A302" t="s">
-        <v>300</v>
-      </c>
-      <c r="B302" t="s">
-        <v>326</v>
-      </c>
-      <c r="D302">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="303" spans="1:4">
-      <c r="A303" t="s">
-        <v>301</v>
-      </c>
-      <c r="B303" t="s">
-        <v>323</v>
-      </c>
-      <c r="D303">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="304" spans="1:4">
-      <c r="A304" t="s">
-        <v>302</v>
-      </c>
-      <c r="B304" t="s">
-        <v>324</v>
-      </c>
-      <c r="D304">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="305" spans="1:4">
-      <c r="A305" t="s">
-        <v>303</v>
-      </c>
-      <c r="B305" t="s">
-        <v>324</v>
-      </c>
-      <c r="D305">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="306" spans="1:4">
-      <c r="A306" t="s">
-        <v>304</v>
-      </c>
-      <c r="B306" t="s">
-        <v>328</v>
-      </c>
-      <c r="D306">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="307" spans="1:4">
-      <c r="A307" t="s">
-        <v>305</v>
-      </c>
-      <c r="B307" t="s">
-        <v>327</v>
-      </c>
-      <c r="C307">
-        <v>67</v>
-      </c>
-      <c r="D307">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="308" spans="1:4">
-      <c r="A308" t="s">
-        <v>306</v>
-      </c>
-      <c r="B308" t="s">
-        <v>325</v>
-      </c>
-      <c r="D308">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="309" spans="1:4">
-      <c r="A309" t="s">
-        <v>307</v>
-      </c>
-      <c r="B309" t="s">
-        <v>323</v>
-      </c>
-      <c r="D309">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="310" spans="1:4">
-      <c r="A310" t="s">
-        <v>308</v>
-      </c>
-      <c r="B310" t="s">
-        <v>332</v>
-      </c>
-      <c r="D310">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="311" spans="1:4">
-      <c r="A311" t="s">
-        <v>309</v>
-      </c>
-      <c r="B311" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="312" spans="1:4">
-      <c r="A312" t="s">
-        <v>310</v>
-      </c>
-      <c r="B312" t="s">
-        <v>337</v>
-      </c>
-      <c r="D312">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="313" spans="1:4">
-      <c r="A313" t="s">
-        <v>311</v>
-      </c>
-      <c r="B313" t="s">
-        <v>324</v>
-      </c>
-      <c r="D313">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="314" spans="1:4">
-      <c r="A314" t="s">
-        <v>312</v>
-      </c>
-      <c r="B314" t="s">
-        <v>324</v>
-      </c>
-      <c r="D314">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="315" spans="1:4">
-      <c r="A315" t="s">
-        <v>313</v>
-      </c>
-      <c r="B315" t="s">
-        <v>323</v>
-      </c>
-      <c r="C315">
-        <v>378</v>
-      </c>
-      <c r="D315">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="316" spans="1:4">
-      <c r="A316" t="s">
-        <v>314</v>
-      </c>
-      <c r="B316" t="s">
-        <v>324</v>
-      </c>
-      <c r="D316">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="317" spans="1:4">
-      <c r="A317" t="s">
-        <v>315</v>
-      </c>
-      <c r="B317" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="318" spans="1:4">
+      <c r="D317">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B318" t="s">
-        <v>343</v>
+        <v>325</v>
       </c>
       <c r="D318">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="319" spans="1:4">
-      <c r="A319" t="s">
-        <v>317</v>
-      </c>
-      <c r="B319" t="s">
-        <v>323</v>
-      </c>
-      <c r="D319">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="320" spans="1:4">
-      <c r="A320" t="s">
-        <v>318</v>
-      </c>
-      <c r="B320" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="321" spans="1:4">
-      <c r="A321" t="s">
-        <v>319</v>
-      </c>
-      <c r="B321" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="322" spans="1:4">
-      <c r="A322" t="s">
-        <v>320</v>
-      </c>
-      <c r="B322" t="s">
-        <v>326</v>
-      </c>
-      <c r="D322">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="323" spans="1:4">
-      <c r="A323" t="s">
-        <v>321</v>
-      </c>
-      <c r="B323" t="s">
-        <v>328</v>
-      </c>
-      <c r="D323">
         <v>32</v>
       </c>
     </row>

--- a/resources/count_sql.xlsx
+++ b/resources/count_sql.xlsx
@@ -1419,7 +1419,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D318"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A298" workbookViewId="0">
+      <selection activeCell="A319" sqref="A319:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
